--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155187FD-5E34-49CF-932B-41E1C225189B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2253CDC7-FADD-45D1-A5A0-4E13C10E0878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
-    <sheet name="2020_mtv" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="OTV_grubuna_dayali_MTV" sheetId="1" r:id="rId2"/>
+    <sheet name="2020_mtv" sheetId="3" r:id="rId3"/>
+    <sheet name="eski_model" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -28,34 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
-  <si>
-    <t>mtv group</t>
-  </si>
-  <si>
-    <t>0-1300</t>
-  </si>
-  <si>
-    <t>1301-1600</t>
-  </si>
-  <si>
-    <t>1601-1800</t>
-  </si>
-  <si>
-    <t>2001-2500</t>
-  </si>
-  <si>
-    <t>2501-3000</t>
-  </si>
-  <si>
-    <t>3001-3500</t>
-  </si>
-  <si>
-    <t>3501-4000</t>
-  </si>
-  <si>
-    <t>4000 - Inf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>1-3 age</t>
   </si>
@@ -69,12 +42,6 @@
     <t>12-15 age</t>
   </si>
   <si>
-    <t>16 or older</t>
-  </si>
-  <si>
-    <t>1801-2000</t>
-  </si>
-  <si>
     <t>engine_group</t>
   </si>
   <si>
@@ -214,6 +181,21 @@
   </si>
   <si>
     <t>yil_30</t>
+  </si>
+  <si>
+    <t>Gram Basina MTV</t>
+  </si>
+  <si>
+    <t>Degisken</t>
+  </si>
+  <si>
+    <t>Deger</t>
+  </si>
+  <si>
+    <t>otv_grubu</t>
+  </si>
+  <si>
+    <t>co2_tax</t>
   </si>
 </sst>
 </file>
@@ -223,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +258,15 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -338,7 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,6 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
@@ -712,35 +704,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478AB89B-8159-4138-8503-304750ADEB86}">
-  <dimension ref="A1:A2"/>
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E080A-FFE8-4F1B-B1F2-126B6A5970E8}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -757,109 +849,109 @@
   <sheetData>
     <row r="1" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3006,227 +3098,6 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>743</v>
-      </c>
-      <c r="C2">
-        <v>518</v>
-      </c>
-      <c r="D2">
-        <v>290</v>
-      </c>
-      <c r="E2">
-        <v>220</v>
-      </c>
-      <c r="F2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1294</v>
-      </c>
-      <c r="C3">
-        <v>970</v>
-      </c>
-      <c r="D3">
-        <v>563</v>
-      </c>
-      <c r="E3">
-        <v>398</v>
-      </c>
-      <c r="F3">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2284</v>
-      </c>
-      <c r="C4">
-        <v>1785</v>
-      </c>
-      <c r="D4">
-        <v>1051</v>
-      </c>
-      <c r="E4">
-        <v>641</v>
-      </c>
-      <c r="F4">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>3598</v>
-      </c>
-      <c r="C5">
-        <v>2771</v>
-      </c>
-      <c r="D5">
-        <v>1629</v>
-      </c>
-      <c r="E5">
-        <v>970</v>
-      </c>
-      <c r="F5">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5396</v>
-      </c>
-      <c r="C6">
-        <v>3918</v>
-      </c>
-      <c r="D6">
-        <v>2448</v>
-      </c>
-      <c r="E6">
-        <v>1463</v>
-      </c>
-      <c r="F6">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>7524</v>
-      </c>
-      <c r="C7">
-        <v>6545</v>
-      </c>
-      <c r="D7">
-        <v>4089</v>
-      </c>
-      <c r="E7">
-        <v>2200</v>
-      </c>
-      <c r="F7">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>11458</v>
-      </c>
-      <c r="C8">
-        <v>10309</v>
-      </c>
-      <c r="D8">
-        <v>6210</v>
-      </c>
-      <c r="E8">
-        <v>3100</v>
-      </c>
-      <c r="F8">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>18014</v>
-      </c>
-      <c r="C9">
-        <v>15555</v>
-      </c>
-      <c r="D9">
-        <v>9161</v>
-      </c>
-      <c r="E9">
-        <v>4089</v>
-      </c>
-      <c r="F9">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>29483</v>
-      </c>
-      <c r="C10">
-        <v>22109</v>
-      </c>
-      <c r="D10">
-        <v>13094</v>
-      </c>
-      <c r="E10">
-        <v>5885</v>
-      </c>
-      <c r="F10">
-        <v>2284</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3235,7 +3106,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3248,25 +3119,25 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3274,10 +3145,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>6.2749079999999999</v>
@@ -3300,10 +3171,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
         <v>6.2451499999999998</v>
@@ -3326,10 +3197,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
         <v>6.2359749999999998</v>
@@ -3352,10 +3223,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
         <v>9.0917790000000007</v>
@@ -3378,10 +3249,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <v>11.820577999999999</v>
@@ -3404,10 +3275,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <v>9.0917279999999998</v>
@@ -3430,10 +3301,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>21.433364000000001</v>
@@ -3456,10 +3327,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4">
         <v>24.734819000000002</v>
@@ -3482,10 +3353,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20.387962999999999</v>
@@ -3508,10 +3379,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>33.373493000000003</v>
@@ -3534,10 +3405,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4">
         <v>41.564867</v>
@@ -3560,13 +3431,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4">
         <v>26.287392000000001</v>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2253CDC7-FADD-45D1-A5A0-4E13C10E0878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE67252F-1787-4D77-B2F4-6575AD9F434D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
     <sheet name="OTV_grubuna_dayali_MTV" sheetId="1" r:id="rId2"/>
-    <sheet name="2020_mtv" sheetId="3" r:id="rId3"/>
-    <sheet name="eski_model" sheetId="2" r:id="rId4"/>
+    <sheet name="co2_araliklari" sheetId="5" r:id="rId3"/>
+    <sheet name="2020_mtv" sheetId="3" r:id="rId4"/>
+    <sheet name="otv_grubu_co2_araliklari" sheetId="6" r:id="rId5"/>
+    <sheet name="eski_modeli (arsiv)" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>1-3 age</t>
   </si>
@@ -196,16 +209,51 @@
   </si>
   <si>
     <t>co2_tax</t>
+  </si>
+  <si>
+    <t>co2_min</t>
+  </si>
+  <si>
+    <t>co2_max</t>
+  </si>
+  <si>
+    <t>co2_grubu</t>
+  </si>
+  <si>
+    <t>satis_fiyati_min</t>
+  </si>
+  <si>
+    <t>vergi_matrahi</t>
+  </si>
+  <si>
+    <t>co2_grubu_1</t>
+  </si>
+  <si>
+    <t>co2_grubu_2</t>
+  </si>
+  <si>
+    <t>co2_grubu_3</t>
+  </si>
+  <si>
+    <t>co2_grubu_4</t>
+  </si>
+  <si>
+    <t>co2_grubu_5</t>
+  </si>
+  <si>
+    <t>mevcut_otv_grubu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,6 +317,13 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -308,7 +363,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -328,8 +383,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,8 +403,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="İzlenen Köprü" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="İzlenen Köprü" xfId="6" builtinId="9" hidden="1"/>
@@ -368,6 +425,7 @@
     <cellStyle name="Köprü" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Köprü" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="19" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -380,6 +438,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="yeni_degiskenler"/>
+      <sheetName val="mevcut_degiskenler"/>
+      <sheetName val="yeni_otv"/>
+      <sheetName val="ice_mevcut"/>
+      <sheetName val="ice_eski"/>
+      <sheetName val="hybrid"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3">
+            <v>85000</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>130000</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>170000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,7 +806,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -828,6 +925,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EBF5AF-2DC9-47C4-B504-74C43DBA0314}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>141</v>
+      </c>
+      <c r="B6">
+        <v>9999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E080A-FFE8-4F1B-B1F2-126B6A5970E8}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
@@ -3101,12 +3283,262 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A912B-ADD4-4D63-9B17-9F969586F6B8}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="10" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1600</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>[1]mevcut_degiskenler!B3</f>
+        <v>85000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1400</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1600</v>
+      </c>
+      <c r="I2" s="11">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1600</v>
+      </c>
+      <c r="D3">
+        <v>145435</v>
+      </c>
+      <c r="E3">
+        <f>[1]mevcut_degiskenler!B4</f>
+        <v>130000</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1800</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2200</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2400</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1600</v>
+      </c>
+      <c r="D4">
+        <v>230100</v>
+      </c>
+      <c r="E4">
+        <v>99999999</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2400</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2600</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2800</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3000</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1601</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>[1]mevcut_degiskenler!B5</f>
+        <v>170000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4600</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5200</v>
+      </c>
+      <c r="I5" s="11">
+        <v>5800</v>
+      </c>
+      <c r="J5" s="11">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1601</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>461379.99999999988</v>
+      </c>
+      <c r="E6">
+        <v>99999999</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="11">
+        <v>6600</v>
+      </c>
+      <c r="H6" s="11">
+        <v>7200</v>
+      </c>
+      <c r="I6" s="11">
+        <v>7800</v>
+      </c>
+      <c r="J6" s="11">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2001</v>
+      </c>
+      <c r="C7">
+        <v>999999</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>99999999</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="11">
+        <v>14000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>18000</v>
+      </c>
+      <c r="I7" s="11">
+        <v>22000</v>
+      </c>
+      <c r="J7" s="11">
+        <v>26000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA4679-8D3F-4AEC-856B-971DCFB5D053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE36949-1E72-4129-B611-48FA802174AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -78,96 +78,6 @@
     <t>Arac omru</t>
   </si>
   <si>
-    <t>yil_1</t>
-  </si>
-  <si>
-    <t>yil_2</t>
-  </si>
-  <si>
-    <t>yil_3</t>
-  </si>
-  <si>
-    <t>yil_4</t>
-  </si>
-  <si>
-    <t>yil_5</t>
-  </si>
-  <si>
-    <t>yil_6</t>
-  </si>
-  <si>
-    <t>yil_7</t>
-  </si>
-  <si>
-    <t>yil_8</t>
-  </si>
-  <si>
-    <t>yil_9</t>
-  </si>
-  <si>
-    <t>yil_10</t>
-  </si>
-  <si>
-    <t>yil_11</t>
-  </si>
-  <si>
-    <t>yil_12</t>
-  </si>
-  <si>
-    <t>yil_13</t>
-  </si>
-  <si>
-    <t>yil_14</t>
-  </si>
-  <si>
-    <t>yil_15</t>
-  </si>
-  <si>
-    <t>yil_16</t>
-  </si>
-  <si>
-    <t>yil_17</t>
-  </si>
-  <si>
-    <t>yil_18</t>
-  </si>
-  <si>
-    <t>yil_19</t>
-  </si>
-  <si>
-    <t>yil_20</t>
-  </si>
-  <si>
-    <t>yil_21</t>
-  </si>
-  <si>
-    <t>yil_22</t>
-  </si>
-  <si>
-    <t>yil_23</t>
-  </si>
-  <si>
-    <t>yil_24</t>
-  </si>
-  <si>
-    <t>yil_25</t>
-  </si>
-  <si>
-    <t>yil_26</t>
-  </si>
-  <si>
-    <t>yil_27</t>
-  </si>
-  <si>
-    <t>yil_28</t>
-  </si>
-  <si>
-    <t>yil_29</t>
-  </si>
-  <si>
-    <t>yil_30</t>
-  </si>
-  <si>
     <t>Gram Basina MTV</t>
   </si>
   <si>
@@ -214,6 +124,96 @@
   </si>
   <si>
     <t>mevcut_otv_grubu</t>
+  </si>
+  <si>
+    <t>sene_1</t>
+  </si>
+  <si>
+    <t>sene_2</t>
+  </si>
+  <si>
+    <t>sene_3</t>
+  </si>
+  <si>
+    <t>sene_4</t>
+  </si>
+  <si>
+    <t>sene_5</t>
+  </si>
+  <si>
+    <t>sene_6</t>
+  </si>
+  <si>
+    <t>sene_7</t>
+  </si>
+  <si>
+    <t>sene_8</t>
+  </si>
+  <si>
+    <t>sene_9</t>
+  </si>
+  <si>
+    <t>sene_10</t>
+  </si>
+  <si>
+    <t>sene_11</t>
+  </si>
+  <si>
+    <t>sene_12</t>
+  </si>
+  <si>
+    <t>sene_13</t>
+  </si>
+  <si>
+    <t>sene_14</t>
+  </si>
+  <si>
+    <t>sene_15</t>
+  </si>
+  <si>
+    <t>sene_16</t>
+  </si>
+  <si>
+    <t>sene_17</t>
+  </si>
+  <si>
+    <t>sene_18</t>
+  </si>
+  <si>
+    <t>sene_19</t>
+  </si>
+  <si>
+    <t>sene_20</t>
+  </si>
+  <si>
+    <t>sene_21</t>
+  </si>
+  <si>
+    <t>sene_22</t>
+  </si>
+  <si>
+    <t>sene_23</t>
+  </si>
+  <si>
+    <t>sene_24</t>
+  </si>
+  <si>
+    <t>sene_25</t>
+  </si>
+  <si>
+    <t>sene_26</t>
+  </si>
+  <si>
+    <t>sene_27</t>
+  </si>
+  <si>
+    <t>sene_28</t>
+  </si>
+  <si>
+    <t>sene_29</t>
+  </si>
+  <si>
+    <t>sene_30</t>
   </si>
 </sst>
 </file>
@@ -222,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,12 +277,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -355,7 +349,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
@@ -772,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -783,10 +777,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +793,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -816,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E080A-FFE8-4F1B-B1F2-126B6A5970E8}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -849,94 +843,94 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3098,10 +3092,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3181,13 +3175,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3198,7 +3192,7 @@
         <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3209,7 +3203,7 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3220,7 +3214,7 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3231,7 +3225,7 @@
         <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,7 +3236,7 @@
         <v>9999</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3264,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3279,25 +3273,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE36949-1E72-4129-B611-48FA802174AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B346C-0B83-4682-9741-83533B693C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -766,16 +766,16 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -783,15 +783,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -810,23 +810,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41E080A-FFE8-4F1B-B1F2-126B6A5970E8}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="13.09765625" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -933,7 +933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3088,9 +3088,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3167,13 +3167,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>96</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>111</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>126</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>141</v>
       </c>
@@ -3253,16 +3253,16 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00B346C-0B83-4682-9741-83533B693C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA513C-7158-4867-896D-27E1B44A5912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -766,16 +766,16 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -814,19 +814,19 @@
       <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.69921875" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" customWidth="1"/>
-    <col min="9" max="9" width="13.09765625" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -933,7 +933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3084,13 +3084,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3108,44 +3108,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -3167,13 +3167,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>96</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>111</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>141</v>
       </c>
@@ -3253,16 +3253,16 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA513C-7158-4867-896D-27E1B44A5912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA25658-91E6-4722-B86A-2C10C4FC75F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -766,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA25658-91E6-4722-B86A-2C10C4FC75F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B053B6AB-90E8-41AF-9D58-CDA5948B40AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="1605" windowWidth="23250" windowHeight="12570" tabRatio="776" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <sheet name="OTV_grubuna_dayali_MTV" sheetId="1" r:id="rId3"/>
     <sheet name="co2_araliklari" sheetId="5" r:id="rId4"/>
     <sheet name="otv_grubu_co2_araliklari" sheetId="6" r:id="rId5"/>
+    <sheet name="LCV_MTV_oranlari" sheetId="7" r:id="rId6"/>
+    <sheet name="lcv_co2_araliklari" sheetId="9" r:id="rId7"/>
+    <sheet name="lcv_co2_aralikli_mtv" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>min_fiyat</t>
   </si>
@@ -214,6 +217,33 @@
   </si>
   <si>
     <t>sene_30</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>govde_tipi</t>
+  </si>
+  <si>
+    <t>Minibüs</t>
+  </si>
+  <si>
+    <t>Kamyonet</t>
+  </si>
+  <si>
+    <t>Pick-Up</t>
+  </si>
+  <si>
+    <t>agirlik_min</t>
+  </si>
+  <si>
+    <t>agirlik_max</t>
+  </si>
+  <si>
+    <t>engine_displacement_min</t>
+  </si>
+  <si>
+    <t>engine_displacement_max</t>
   </si>
 </sst>
 </file>
@@ -224,7 +254,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +306,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -339,7 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +388,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
@@ -400,6 +439,11 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>0.18</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="B3">
             <v>85000</v>
@@ -766,8 +810,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -811,7 +855,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+      <selection activeCell="F1" sqref="F1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3164,7 +3208,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3250,7 +3294,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F1" sqref="F1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3493,4 +3537,2226 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040514E0-2827-4775-9E6B-92D0C2089053}">
+  <dimension ref="A1:AJ16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>99999</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1900</v>
+      </c>
+      <c r="G2">
+        <v>1536</v>
+      </c>
+      <c r="H2">
+        <v>1536</v>
+      </c>
+      <c r="I2">
+        <v>1536</v>
+      </c>
+      <c r="J2">
+        <v>1536</v>
+      </c>
+      <c r="K2">
+        <v>1536</v>
+      </c>
+      <c r="L2">
+        <v>1536</v>
+      </c>
+      <c r="M2">
+        <v>958</v>
+      </c>
+      <c r="N2">
+        <v>958</v>
+      </c>
+      <c r="O2">
+        <v>958</v>
+      </c>
+      <c r="P2">
+        <v>958</v>
+      </c>
+      <c r="Q2">
+        <v>958</v>
+      </c>
+      <c r="R2">
+        <v>958</v>
+      </c>
+      <c r="S2">
+        <v>958</v>
+      </c>
+      <c r="T2">
+        <v>958</v>
+      </c>
+      <c r="U2">
+        <v>958</v>
+      </c>
+      <c r="V2">
+        <v>570</v>
+      </c>
+      <c r="W2">
+        <v>570</v>
+      </c>
+      <c r="X2">
+        <v>570</v>
+      </c>
+      <c r="Y2">
+        <v>570</v>
+      </c>
+      <c r="Z2">
+        <v>570</v>
+      </c>
+      <c r="AA2">
+        <v>570</v>
+      </c>
+      <c r="AB2">
+        <v>570</v>
+      </c>
+      <c r="AC2">
+        <v>570</v>
+      </c>
+      <c r="AD2">
+        <v>570</v>
+      </c>
+      <c r="AE2">
+        <v>570</v>
+      </c>
+      <c r="AF2">
+        <v>570</v>
+      </c>
+      <c r="AG2">
+        <v>570</v>
+      </c>
+      <c r="AH2">
+        <v>570</v>
+      </c>
+      <c r="AI2">
+        <v>570</v>
+      </c>
+      <c r="AJ2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>99999</v>
+      </c>
+      <c r="E3">
+        <v>1901</v>
+      </c>
+      <c r="F3">
+        <v>99999</v>
+      </c>
+      <c r="G3">
+        <v>2311</v>
+      </c>
+      <c r="H3">
+        <v>2311</v>
+      </c>
+      <c r="I3">
+        <v>2311</v>
+      </c>
+      <c r="J3">
+        <v>2311</v>
+      </c>
+      <c r="K3">
+        <v>2311</v>
+      </c>
+      <c r="L3">
+        <v>2311</v>
+      </c>
+      <c r="M3">
+        <v>1536</v>
+      </c>
+      <c r="N3">
+        <v>1536</v>
+      </c>
+      <c r="O3">
+        <v>1536</v>
+      </c>
+      <c r="P3">
+        <v>1536</v>
+      </c>
+      <c r="Q3">
+        <v>1536</v>
+      </c>
+      <c r="R3">
+        <v>1536</v>
+      </c>
+      <c r="S3">
+        <v>1536</v>
+      </c>
+      <c r="T3">
+        <v>1536</v>
+      </c>
+      <c r="U3">
+        <v>1536</v>
+      </c>
+      <c r="V3">
+        <v>958</v>
+      </c>
+      <c r="W3">
+        <v>958</v>
+      </c>
+      <c r="X3">
+        <v>958</v>
+      </c>
+      <c r="Y3">
+        <v>958</v>
+      </c>
+      <c r="Z3">
+        <v>958</v>
+      </c>
+      <c r="AA3">
+        <v>958</v>
+      </c>
+      <c r="AB3">
+        <v>958</v>
+      </c>
+      <c r="AC3">
+        <v>958</v>
+      </c>
+      <c r="AD3">
+        <v>958</v>
+      </c>
+      <c r="AE3">
+        <v>958</v>
+      </c>
+      <c r="AF3">
+        <v>958</v>
+      </c>
+      <c r="AG3">
+        <v>958</v>
+      </c>
+      <c r="AH3">
+        <v>958</v>
+      </c>
+      <c r="AI3">
+        <v>958</v>
+      </c>
+      <c r="AJ3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>99999</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>99999</v>
+      </c>
+      <c r="G4">
+        <v>1152</v>
+      </c>
+      <c r="H4">
+        <v>1152</v>
+      </c>
+      <c r="I4">
+        <v>1152</v>
+      </c>
+      <c r="J4">
+        <v>1152</v>
+      </c>
+      <c r="K4">
+        <v>1152</v>
+      </c>
+      <c r="L4">
+        <v>1152</v>
+      </c>
+      <c r="M4">
+        <v>761</v>
+      </c>
+      <c r="N4">
+        <v>761</v>
+      </c>
+      <c r="O4">
+        <v>761</v>
+      </c>
+      <c r="P4">
+        <v>761</v>
+      </c>
+      <c r="Q4">
+        <v>761</v>
+      </c>
+      <c r="R4">
+        <v>761</v>
+      </c>
+      <c r="S4">
+        <v>761</v>
+      </c>
+      <c r="T4">
+        <v>761</v>
+      </c>
+      <c r="U4">
+        <v>761</v>
+      </c>
+      <c r="V4">
+        <v>372</v>
+      </c>
+      <c r="W4">
+        <v>372</v>
+      </c>
+      <c r="X4">
+        <v>372</v>
+      </c>
+      <c r="Y4">
+        <v>372</v>
+      </c>
+      <c r="Z4">
+        <v>372</v>
+      </c>
+      <c r="AA4">
+        <v>372</v>
+      </c>
+      <c r="AB4">
+        <v>372</v>
+      </c>
+      <c r="AC4">
+        <v>372</v>
+      </c>
+      <c r="AD4">
+        <v>372</v>
+      </c>
+      <c r="AE4">
+        <v>372</v>
+      </c>
+      <c r="AF4">
+        <v>372</v>
+      </c>
+      <c r="AG4">
+        <v>372</v>
+      </c>
+      <c r="AH4">
+        <v>372</v>
+      </c>
+      <c r="AI4">
+        <v>372</v>
+      </c>
+      <c r="AJ4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>99999</v>
+      </c>
+      <c r="G5">
+        <v>1033</v>
+      </c>
+      <c r="H5">
+        <v>1033</v>
+      </c>
+      <c r="I5">
+        <v>1033</v>
+      </c>
+      <c r="J5">
+        <v>1033</v>
+      </c>
+      <c r="K5">
+        <v>1033</v>
+      </c>
+      <c r="L5">
+        <v>1033</v>
+      </c>
+      <c r="M5">
+        <v>686</v>
+      </c>
+      <c r="N5">
+        <v>686</v>
+      </c>
+      <c r="O5">
+        <v>686</v>
+      </c>
+      <c r="P5">
+        <v>686</v>
+      </c>
+      <c r="Q5">
+        <v>686</v>
+      </c>
+      <c r="R5">
+        <v>686</v>
+      </c>
+      <c r="S5">
+        <v>686</v>
+      </c>
+      <c r="T5">
+        <v>686</v>
+      </c>
+      <c r="U5">
+        <v>686</v>
+      </c>
+      <c r="V5">
+        <v>337</v>
+      </c>
+      <c r="W5">
+        <v>337</v>
+      </c>
+      <c r="X5">
+        <v>337</v>
+      </c>
+      <c r="Y5">
+        <v>337</v>
+      </c>
+      <c r="Z5">
+        <v>337</v>
+      </c>
+      <c r="AA5">
+        <v>337</v>
+      </c>
+      <c r="AB5">
+        <v>337</v>
+      </c>
+      <c r="AC5">
+        <v>337</v>
+      </c>
+      <c r="AD5">
+        <v>337</v>
+      </c>
+      <c r="AE5">
+        <v>337</v>
+      </c>
+      <c r="AF5">
+        <v>337</v>
+      </c>
+      <c r="AG5">
+        <v>337</v>
+      </c>
+      <c r="AH5">
+        <v>337</v>
+      </c>
+      <c r="AI5">
+        <v>337</v>
+      </c>
+      <c r="AJ5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>1501</v>
+      </c>
+      <c r="D6">
+        <v>3500</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>99999</v>
+      </c>
+      <c r="G6">
+        <v>2091</v>
+      </c>
+      <c r="H6">
+        <v>2091</v>
+      </c>
+      <c r="I6">
+        <v>2091</v>
+      </c>
+      <c r="J6">
+        <v>2091</v>
+      </c>
+      <c r="K6">
+        <v>2091</v>
+      </c>
+      <c r="L6">
+        <v>2091</v>
+      </c>
+      <c r="M6">
+        <v>1212</v>
+      </c>
+      <c r="N6">
+        <v>1212</v>
+      </c>
+      <c r="O6">
+        <v>1212</v>
+      </c>
+      <c r="P6">
+        <v>1212</v>
+      </c>
+      <c r="Q6">
+        <v>1212</v>
+      </c>
+      <c r="R6">
+        <v>1212</v>
+      </c>
+      <c r="S6">
+        <v>1212</v>
+      </c>
+      <c r="T6">
+        <v>1212</v>
+      </c>
+      <c r="U6">
+        <v>1212</v>
+      </c>
+      <c r="V6">
+        <v>686</v>
+      </c>
+      <c r="W6">
+        <v>686</v>
+      </c>
+      <c r="X6">
+        <v>686</v>
+      </c>
+      <c r="Y6">
+        <v>686</v>
+      </c>
+      <c r="Z6">
+        <v>686</v>
+      </c>
+      <c r="AA6">
+        <v>686</v>
+      </c>
+      <c r="AB6">
+        <v>686</v>
+      </c>
+      <c r="AC6">
+        <v>686</v>
+      </c>
+      <c r="AD6">
+        <v>686</v>
+      </c>
+      <c r="AE6">
+        <v>686</v>
+      </c>
+      <c r="AF6">
+        <v>686</v>
+      </c>
+      <c r="AG6">
+        <v>686</v>
+      </c>
+      <c r="AH6">
+        <v>686</v>
+      </c>
+      <c r="AI6">
+        <v>686</v>
+      </c>
+      <c r="AJ6">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>3501</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>99999</v>
+      </c>
+      <c r="G7">
+        <v>3141</v>
+      </c>
+      <c r="H7">
+        <v>3141</v>
+      </c>
+      <c r="I7">
+        <v>3141</v>
+      </c>
+      <c r="J7">
+        <v>3141</v>
+      </c>
+      <c r="K7">
+        <v>3141</v>
+      </c>
+      <c r="L7">
+        <v>3141</v>
+      </c>
+      <c r="M7">
+        <v>2614</v>
+      </c>
+      <c r="N7">
+        <v>2614</v>
+      </c>
+      <c r="O7">
+        <v>2614</v>
+      </c>
+      <c r="P7">
+        <v>2614</v>
+      </c>
+      <c r="Q7">
+        <v>2614</v>
+      </c>
+      <c r="R7">
+        <v>2614</v>
+      </c>
+      <c r="S7">
+        <v>2614</v>
+      </c>
+      <c r="T7">
+        <v>2614</v>
+      </c>
+      <c r="U7">
+        <v>2614</v>
+      </c>
+      <c r="V7">
+        <v>1033</v>
+      </c>
+      <c r="W7">
+        <v>1033</v>
+      </c>
+      <c r="X7">
+        <v>1033</v>
+      </c>
+      <c r="Y7">
+        <v>1033</v>
+      </c>
+      <c r="Z7">
+        <v>1033</v>
+      </c>
+      <c r="AA7">
+        <v>1033</v>
+      </c>
+      <c r="AB7">
+        <v>1033</v>
+      </c>
+      <c r="AC7">
+        <v>1033</v>
+      </c>
+      <c r="AD7">
+        <v>1033</v>
+      </c>
+      <c r="AE7">
+        <v>1033</v>
+      </c>
+      <c r="AF7">
+        <v>1033</v>
+      </c>
+      <c r="AG7">
+        <v>1033</v>
+      </c>
+      <c r="AH7">
+        <v>1033</v>
+      </c>
+      <c r="AI7">
+        <v>1033</v>
+      </c>
+      <c r="AJ7">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>5001</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>99999</v>
+      </c>
+      <c r="G8">
+        <v>3483</v>
+      </c>
+      <c r="H8">
+        <v>3483</v>
+      </c>
+      <c r="I8">
+        <v>3483</v>
+      </c>
+      <c r="J8">
+        <v>3483</v>
+      </c>
+      <c r="K8">
+        <v>3483</v>
+      </c>
+      <c r="L8">
+        <v>3483</v>
+      </c>
+      <c r="M8">
+        <v>2962</v>
+      </c>
+      <c r="N8">
+        <v>2962</v>
+      </c>
+      <c r="O8">
+        <v>2962</v>
+      </c>
+      <c r="P8">
+        <v>2962</v>
+      </c>
+      <c r="Q8">
+        <v>2962</v>
+      </c>
+      <c r="R8">
+        <v>2962</v>
+      </c>
+      <c r="S8">
+        <v>2962</v>
+      </c>
+      <c r="T8">
+        <v>2962</v>
+      </c>
+      <c r="U8">
+        <v>2962</v>
+      </c>
+      <c r="V8">
+        <v>1389</v>
+      </c>
+      <c r="W8">
+        <v>1389</v>
+      </c>
+      <c r="X8">
+        <v>1389</v>
+      </c>
+      <c r="Y8">
+        <v>1389</v>
+      </c>
+      <c r="Z8">
+        <v>1389</v>
+      </c>
+      <c r="AA8">
+        <v>1389</v>
+      </c>
+      <c r="AB8">
+        <v>1389</v>
+      </c>
+      <c r="AC8">
+        <v>1389</v>
+      </c>
+      <c r="AD8">
+        <v>1389</v>
+      </c>
+      <c r="AE8">
+        <v>1389</v>
+      </c>
+      <c r="AF8">
+        <v>1389</v>
+      </c>
+      <c r="AG8">
+        <v>1389</v>
+      </c>
+      <c r="AH8">
+        <v>1389</v>
+      </c>
+      <c r="AI8">
+        <v>1389</v>
+      </c>
+      <c r="AJ8">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>10001</v>
+      </c>
+      <c r="D9">
+        <v>20000</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>99999</v>
+      </c>
+      <c r="G9">
+        <v>4191</v>
+      </c>
+      <c r="H9">
+        <v>4191</v>
+      </c>
+      <c r="I9">
+        <v>4191</v>
+      </c>
+      <c r="J9">
+        <v>4191</v>
+      </c>
+      <c r="K9">
+        <v>4191</v>
+      </c>
+      <c r="L9">
+        <v>4191</v>
+      </c>
+      <c r="M9">
+        <v>3487</v>
+      </c>
+      <c r="N9">
+        <v>3487</v>
+      </c>
+      <c r="O9">
+        <v>3487</v>
+      </c>
+      <c r="P9">
+        <v>3487</v>
+      </c>
+      <c r="Q9">
+        <v>3487</v>
+      </c>
+      <c r="R9">
+        <v>3487</v>
+      </c>
+      <c r="S9">
+        <v>3487</v>
+      </c>
+      <c r="T9">
+        <v>3487</v>
+      </c>
+      <c r="U9">
+        <v>3487</v>
+      </c>
+      <c r="V9">
+        <v>2091</v>
+      </c>
+      <c r="W9">
+        <v>2091</v>
+      </c>
+      <c r="X9">
+        <v>2091</v>
+      </c>
+      <c r="Y9">
+        <v>2091</v>
+      </c>
+      <c r="Z9">
+        <v>2091</v>
+      </c>
+      <c r="AA9">
+        <v>2091</v>
+      </c>
+      <c r="AB9">
+        <v>2091</v>
+      </c>
+      <c r="AC9">
+        <v>2091</v>
+      </c>
+      <c r="AD9">
+        <v>2091</v>
+      </c>
+      <c r="AE9">
+        <v>2091</v>
+      </c>
+      <c r="AF9">
+        <v>2091</v>
+      </c>
+      <c r="AG9">
+        <v>2091</v>
+      </c>
+      <c r="AH9">
+        <v>2091</v>
+      </c>
+      <c r="AI9">
+        <v>2091</v>
+      </c>
+      <c r="AJ9">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>20001</v>
+      </c>
+      <c r="D10">
+        <v>999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>99999</v>
+      </c>
+      <c r="G10">
+        <v>5242</v>
+      </c>
+      <c r="H10">
+        <v>5242</v>
+      </c>
+      <c r="I10">
+        <v>5242</v>
+      </c>
+      <c r="J10">
+        <v>5242</v>
+      </c>
+      <c r="K10">
+        <v>5242</v>
+      </c>
+      <c r="L10">
+        <v>5242</v>
+      </c>
+      <c r="M10">
+        <v>4191</v>
+      </c>
+      <c r="N10">
+        <v>4191</v>
+      </c>
+      <c r="O10">
+        <v>4191</v>
+      </c>
+      <c r="P10">
+        <v>4191</v>
+      </c>
+      <c r="Q10">
+        <v>4191</v>
+      </c>
+      <c r="R10">
+        <v>4191</v>
+      </c>
+      <c r="S10">
+        <v>4191</v>
+      </c>
+      <c r="T10">
+        <v>4191</v>
+      </c>
+      <c r="U10">
+        <v>4191</v>
+      </c>
+      <c r="V10">
+        <v>2436</v>
+      </c>
+      <c r="W10">
+        <v>2436</v>
+      </c>
+      <c r="X10">
+        <v>2436</v>
+      </c>
+      <c r="Y10">
+        <v>2436</v>
+      </c>
+      <c r="Z10">
+        <v>2436</v>
+      </c>
+      <c r="AA10">
+        <v>2436</v>
+      </c>
+      <c r="AB10">
+        <v>2436</v>
+      </c>
+      <c r="AC10">
+        <v>2436</v>
+      </c>
+      <c r="AD10">
+        <v>2436</v>
+      </c>
+      <c r="AE10">
+        <v>2436</v>
+      </c>
+      <c r="AF10">
+        <v>2436</v>
+      </c>
+      <c r="AG10">
+        <v>2436</v>
+      </c>
+      <c r="AH10">
+        <v>2436</v>
+      </c>
+      <c r="AI10">
+        <v>2436</v>
+      </c>
+      <c r="AJ10">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1500</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>99999</v>
+      </c>
+      <c r="G11">
+        <v>1033</v>
+      </c>
+      <c r="H11">
+        <v>1033</v>
+      </c>
+      <c r="I11">
+        <v>1033</v>
+      </c>
+      <c r="J11">
+        <v>1033</v>
+      </c>
+      <c r="K11">
+        <v>1033</v>
+      </c>
+      <c r="L11">
+        <v>1033</v>
+      </c>
+      <c r="M11">
+        <v>686</v>
+      </c>
+      <c r="N11">
+        <v>686</v>
+      </c>
+      <c r="O11">
+        <v>686</v>
+      </c>
+      <c r="P11">
+        <v>686</v>
+      </c>
+      <c r="Q11">
+        <v>686</v>
+      </c>
+      <c r="R11">
+        <v>686</v>
+      </c>
+      <c r="S11">
+        <v>686</v>
+      </c>
+      <c r="T11">
+        <v>686</v>
+      </c>
+      <c r="U11">
+        <v>686</v>
+      </c>
+      <c r="V11">
+        <v>337</v>
+      </c>
+      <c r="W11">
+        <v>337</v>
+      </c>
+      <c r="X11">
+        <v>337</v>
+      </c>
+      <c r="Y11">
+        <v>337</v>
+      </c>
+      <c r="Z11">
+        <v>337</v>
+      </c>
+      <c r="AA11">
+        <v>337</v>
+      </c>
+      <c r="AB11">
+        <v>337</v>
+      </c>
+      <c r="AC11">
+        <v>337</v>
+      </c>
+      <c r="AD11">
+        <v>337</v>
+      </c>
+      <c r="AE11">
+        <v>337</v>
+      </c>
+      <c r="AF11">
+        <v>337</v>
+      </c>
+      <c r="AG11">
+        <v>337</v>
+      </c>
+      <c r="AH11">
+        <v>337</v>
+      </c>
+      <c r="AI11">
+        <v>337</v>
+      </c>
+      <c r="AJ11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>1501</v>
+      </c>
+      <c r="D12">
+        <v>3500</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>99999</v>
+      </c>
+      <c r="G12">
+        <v>2091</v>
+      </c>
+      <c r="H12">
+        <v>2091</v>
+      </c>
+      <c r="I12">
+        <v>2091</v>
+      </c>
+      <c r="J12">
+        <v>2091</v>
+      </c>
+      <c r="K12">
+        <v>2091</v>
+      </c>
+      <c r="L12">
+        <v>2091</v>
+      </c>
+      <c r="M12">
+        <v>1212</v>
+      </c>
+      <c r="N12">
+        <v>1212</v>
+      </c>
+      <c r="O12">
+        <v>1212</v>
+      </c>
+      <c r="P12">
+        <v>1212</v>
+      </c>
+      <c r="Q12">
+        <v>1212</v>
+      </c>
+      <c r="R12">
+        <v>1212</v>
+      </c>
+      <c r="S12">
+        <v>1212</v>
+      </c>
+      <c r="T12">
+        <v>1212</v>
+      </c>
+      <c r="U12">
+        <v>1212</v>
+      </c>
+      <c r="V12">
+        <v>686</v>
+      </c>
+      <c r="W12">
+        <v>686</v>
+      </c>
+      <c r="X12">
+        <v>686</v>
+      </c>
+      <c r="Y12">
+        <v>686</v>
+      </c>
+      <c r="Z12">
+        <v>686</v>
+      </c>
+      <c r="AA12">
+        <v>686</v>
+      </c>
+      <c r="AB12">
+        <v>686</v>
+      </c>
+      <c r="AC12">
+        <v>686</v>
+      </c>
+      <c r="AD12">
+        <v>686</v>
+      </c>
+      <c r="AE12">
+        <v>686</v>
+      </c>
+      <c r="AF12">
+        <v>686</v>
+      </c>
+      <c r="AG12">
+        <v>686</v>
+      </c>
+      <c r="AH12">
+        <v>686</v>
+      </c>
+      <c r="AI12">
+        <v>686</v>
+      </c>
+      <c r="AJ12">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>3501</v>
+      </c>
+      <c r="D13">
+        <v>5000</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>99999</v>
+      </c>
+      <c r="G13">
+        <v>3141</v>
+      </c>
+      <c r="H13">
+        <v>3141</v>
+      </c>
+      <c r="I13">
+        <v>3141</v>
+      </c>
+      <c r="J13">
+        <v>3141</v>
+      </c>
+      <c r="K13">
+        <v>3141</v>
+      </c>
+      <c r="L13">
+        <v>3141</v>
+      </c>
+      <c r="M13">
+        <v>2614</v>
+      </c>
+      <c r="N13">
+        <v>2614</v>
+      </c>
+      <c r="O13">
+        <v>2614</v>
+      </c>
+      <c r="P13">
+        <v>2614</v>
+      </c>
+      <c r="Q13">
+        <v>2614</v>
+      </c>
+      <c r="R13">
+        <v>2614</v>
+      </c>
+      <c r="S13">
+        <v>2614</v>
+      </c>
+      <c r="T13">
+        <v>2614</v>
+      </c>
+      <c r="U13">
+        <v>2614</v>
+      </c>
+      <c r="V13">
+        <v>1033</v>
+      </c>
+      <c r="W13">
+        <v>1033</v>
+      </c>
+      <c r="X13">
+        <v>1033</v>
+      </c>
+      <c r="Y13">
+        <v>1033</v>
+      </c>
+      <c r="Z13">
+        <v>1033</v>
+      </c>
+      <c r="AA13">
+        <v>1033</v>
+      </c>
+      <c r="AB13">
+        <v>1033</v>
+      </c>
+      <c r="AC13">
+        <v>1033</v>
+      </c>
+      <c r="AD13">
+        <v>1033</v>
+      </c>
+      <c r="AE13">
+        <v>1033</v>
+      </c>
+      <c r="AF13">
+        <v>1033</v>
+      </c>
+      <c r="AG13">
+        <v>1033</v>
+      </c>
+      <c r="AH13">
+        <v>1033</v>
+      </c>
+      <c r="AI13">
+        <v>1033</v>
+      </c>
+      <c r="AJ13">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>5001</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>99999</v>
+      </c>
+      <c r="G14">
+        <v>3483</v>
+      </c>
+      <c r="H14">
+        <v>3483</v>
+      </c>
+      <c r="I14">
+        <v>3483</v>
+      </c>
+      <c r="J14">
+        <v>3483</v>
+      </c>
+      <c r="K14">
+        <v>3483</v>
+      </c>
+      <c r="L14">
+        <v>3483</v>
+      </c>
+      <c r="M14">
+        <v>2962</v>
+      </c>
+      <c r="N14">
+        <v>2962</v>
+      </c>
+      <c r="O14">
+        <v>2962</v>
+      </c>
+      <c r="P14">
+        <v>2962</v>
+      </c>
+      <c r="Q14">
+        <v>2962</v>
+      </c>
+      <c r="R14">
+        <v>2962</v>
+      </c>
+      <c r="S14">
+        <v>2962</v>
+      </c>
+      <c r="T14">
+        <v>2962</v>
+      </c>
+      <c r="U14">
+        <v>2962</v>
+      </c>
+      <c r="V14">
+        <v>1389</v>
+      </c>
+      <c r="W14">
+        <v>1389</v>
+      </c>
+      <c r="X14">
+        <v>1389</v>
+      </c>
+      <c r="Y14">
+        <v>1389</v>
+      </c>
+      <c r="Z14">
+        <v>1389</v>
+      </c>
+      <c r="AA14">
+        <v>1389</v>
+      </c>
+      <c r="AB14">
+        <v>1389</v>
+      </c>
+      <c r="AC14">
+        <v>1389</v>
+      </c>
+      <c r="AD14">
+        <v>1389</v>
+      </c>
+      <c r="AE14">
+        <v>1389</v>
+      </c>
+      <c r="AF14">
+        <v>1389</v>
+      </c>
+      <c r="AG14">
+        <v>1389</v>
+      </c>
+      <c r="AH14">
+        <v>1389</v>
+      </c>
+      <c r="AI14">
+        <v>1389</v>
+      </c>
+      <c r="AJ14">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>10001</v>
+      </c>
+      <c r="D15">
+        <v>20000</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>99999</v>
+      </c>
+      <c r="G15">
+        <v>4191</v>
+      </c>
+      <c r="H15">
+        <v>4191</v>
+      </c>
+      <c r="I15">
+        <v>4191</v>
+      </c>
+      <c r="J15">
+        <v>4191</v>
+      </c>
+      <c r="K15">
+        <v>4191</v>
+      </c>
+      <c r="L15">
+        <v>4191</v>
+      </c>
+      <c r="M15">
+        <v>3487</v>
+      </c>
+      <c r="N15">
+        <v>3487</v>
+      </c>
+      <c r="O15">
+        <v>3487</v>
+      </c>
+      <c r="P15">
+        <v>3487</v>
+      </c>
+      <c r="Q15">
+        <v>3487</v>
+      </c>
+      <c r="R15">
+        <v>3487</v>
+      </c>
+      <c r="S15">
+        <v>3487</v>
+      </c>
+      <c r="T15">
+        <v>3487</v>
+      </c>
+      <c r="U15">
+        <v>3487</v>
+      </c>
+      <c r="V15">
+        <v>2091</v>
+      </c>
+      <c r="W15">
+        <v>2091</v>
+      </c>
+      <c r="X15">
+        <v>2091</v>
+      </c>
+      <c r="Y15">
+        <v>2091</v>
+      </c>
+      <c r="Z15">
+        <v>2091</v>
+      </c>
+      <c r="AA15">
+        <v>2091</v>
+      </c>
+      <c r="AB15">
+        <v>2091</v>
+      </c>
+      <c r="AC15">
+        <v>2091</v>
+      </c>
+      <c r="AD15">
+        <v>2091</v>
+      </c>
+      <c r="AE15">
+        <v>2091</v>
+      </c>
+      <c r="AF15">
+        <v>2091</v>
+      </c>
+      <c r="AG15">
+        <v>2091</v>
+      </c>
+      <c r="AH15">
+        <v>2091</v>
+      </c>
+      <c r="AI15">
+        <v>2091</v>
+      </c>
+      <c r="AJ15">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>20001</v>
+      </c>
+      <c r="D16">
+        <v>999999</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>99999</v>
+      </c>
+      <c r="G16">
+        <v>5242</v>
+      </c>
+      <c r="H16">
+        <v>5242</v>
+      </c>
+      <c r="I16">
+        <v>5242</v>
+      </c>
+      <c r="J16">
+        <v>5242</v>
+      </c>
+      <c r="K16">
+        <v>5242</v>
+      </c>
+      <c r="L16">
+        <v>5242</v>
+      </c>
+      <c r="M16">
+        <v>4191</v>
+      </c>
+      <c r="N16">
+        <v>4191</v>
+      </c>
+      <c r="O16">
+        <v>4191</v>
+      </c>
+      <c r="P16">
+        <v>4191</v>
+      </c>
+      <c r="Q16">
+        <v>4191</v>
+      </c>
+      <c r="R16">
+        <v>4191</v>
+      </c>
+      <c r="S16">
+        <v>4191</v>
+      </c>
+      <c r="T16">
+        <v>4191</v>
+      </c>
+      <c r="U16">
+        <v>4191</v>
+      </c>
+      <c r="V16">
+        <v>2436</v>
+      </c>
+      <c r="W16">
+        <v>2436</v>
+      </c>
+      <c r="X16">
+        <v>2436</v>
+      </c>
+      <c r="Y16">
+        <v>2436</v>
+      </c>
+      <c r="Z16">
+        <v>2436</v>
+      </c>
+      <c r="AA16">
+        <v>2436</v>
+      </c>
+      <c r="AB16">
+        <v>2436</v>
+      </c>
+      <c r="AC16">
+        <v>2436</v>
+      </c>
+      <c r="AD16">
+        <v>2436</v>
+      </c>
+      <c r="AE16">
+        <v>2436</v>
+      </c>
+      <c r="AF16">
+        <v>2436</v>
+      </c>
+      <c r="AG16">
+        <v>2436</v>
+      </c>
+      <c r="AH16">
+        <v>2436</v>
+      </c>
+      <c r="AI16">
+        <v>2436</v>
+      </c>
+      <c r="AJ16">
+        <v>2436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F60C4C-2BAF-44F1-AC46-1A348565FC81}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>141</v>
+      </c>
+      <c r="B4">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>161</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>181</v>
+      </c>
+      <c r="B6">
+        <v>9999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4A946D-1117-48A1-B365-ECBD931B9CE9}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1200</v>
+      </c>
+      <c r="C2">
+        <v>1400</v>
+      </c>
+      <c r="D2">
+        <v>1600</v>
+      </c>
+      <c r="E2">
+        <v>1800</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>2200</v>
+      </c>
+      <c r="D3">
+        <v>2400</v>
+      </c>
+      <c r="E3">
+        <v>2600</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2800</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1200</v>
+      </c>
+      <c r="E4">
+        <v>1400</v>
+      </c>
+      <c r="F4">
+        <v>1600</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>1200</v>
+      </c>
+      <c r="E5">
+        <v>1400</v>
+      </c>
+      <c r="F5">
+        <v>1600</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1800</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>2200</v>
+      </c>
+      <c r="E6">
+        <v>2400</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2600</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2800</v>
+      </c>
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7">
+        <v>3200</v>
+      </c>
+      <c r="E7">
+        <v>3400</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3000</v>
+      </c>
+      <c r="C8">
+        <v>3200</v>
+      </c>
+      <c r="D8">
+        <v>3400</v>
+      </c>
+      <c r="E8">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3800</v>
+      </c>
+      <c r="C9">
+        <v>4000</v>
+      </c>
+      <c r="D9">
+        <v>4200</v>
+      </c>
+      <c r="E9">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4800</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10">
+        <v>5200</v>
+      </c>
+      <c r="E10">
+        <v>5400</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>1200</v>
+      </c>
+      <c r="E11">
+        <v>1400</v>
+      </c>
+      <c r="F11">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1800</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12">
+        <v>2200</v>
+      </c>
+      <c r="E12">
+        <v>2400</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2800</v>
+      </c>
+      <c r="C13">
+        <v>3000</v>
+      </c>
+      <c r="D13">
+        <v>3200</v>
+      </c>
+      <c r="E13">
+        <v>3400</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3000</v>
+      </c>
+      <c r="C14">
+        <v>3200</v>
+      </c>
+      <c r="D14">
+        <v>3400</v>
+      </c>
+      <c r="E14">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3800</v>
+      </c>
+      <c r="C15">
+        <v>4000</v>
+      </c>
+      <c r="D15">
+        <v>4200</v>
+      </c>
+      <c r="E15">
+        <v>4400</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4800</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16">
+        <v>5200</v>
+      </c>
+      <c r="E16">
+        <v>5400</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B053B6AB-90E8-41AF-9D58-CDA5948B40AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954B688-ED1D-4496-9B8E-A5F64B029BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1605" windowWidth="23250" windowHeight="12570" tabRatio="776" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -3544,7 +3544,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5328,7 +5328,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5409,7 +5409,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5442,19 +5442,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C2">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="D2">
-        <v>1600</v>
-      </c>
-      <c r="E2">
         <v>1800</v>
       </c>
-      <c r="F2" s="7">
+      <c r="E2" s="7">
         <v>2000</v>
+      </c>
+      <c r="F2">
+        <v>2200</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -5465,16 +5465,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="C3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="D3">
-        <v>2400</v>
-      </c>
-      <c r="E3">
         <v>2600</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2800</v>
       </c>
       <c r="F3" s="7">
         <v>2800</v>
@@ -5488,19 +5488,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="D4">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E4">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F4">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954B688-ED1D-4496-9B8E-A5F64B029BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F81757-FCA6-4488-9A20-9648BED5FF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="LCV_MTV_oranlari" sheetId="7" r:id="rId6"/>
     <sheet name="lcv_co2_araliklari" sheetId="9" r:id="rId7"/>
     <sheet name="lcv_co2_aralikli_mtv" sheetId="8" r:id="rId8"/>
+    <sheet name="HCV_MTV" sheetId="10" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
   <si>
     <t>min_fiyat</t>
   </si>
@@ -244,6 +245,18 @@
   </si>
   <si>
     <t>engine_displacement_max</t>
+  </si>
+  <si>
+    <t>otobus</t>
+  </si>
+  <si>
+    <t>kamyon</t>
+  </si>
+  <si>
+    <t>oturma_yeri_min</t>
+  </si>
+  <si>
+    <t>oturma_yeri_max</t>
   </si>
 </sst>
 </file>
@@ -437,7 +450,7 @@
       <sheetName val="hybrid"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -460,10 +473,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3543,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040514E0-2827-4775-9E6B-92D0C2089053}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5408,7 +5421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4A946D-1117-48A1-B365-ECBD931B9CE9}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5759,4 +5772,1233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C78D9E-378F-4AC6-AC1B-DEEA36CD5470}">
+  <dimension ref="A1:AJ11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1500</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>99999</v>
+      </c>
+      <c r="G2">
+        <v>1033</v>
+      </c>
+      <c r="H2">
+        <v>1033</v>
+      </c>
+      <c r="I2">
+        <v>1033</v>
+      </c>
+      <c r="J2">
+        <v>1033</v>
+      </c>
+      <c r="K2">
+        <v>1033</v>
+      </c>
+      <c r="L2">
+        <v>1033</v>
+      </c>
+      <c r="M2">
+        <v>686</v>
+      </c>
+      <c r="N2">
+        <v>686</v>
+      </c>
+      <c r="O2">
+        <v>686</v>
+      </c>
+      <c r="P2">
+        <v>686</v>
+      </c>
+      <c r="Q2">
+        <v>686</v>
+      </c>
+      <c r="R2">
+        <v>686</v>
+      </c>
+      <c r="S2">
+        <v>686</v>
+      </c>
+      <c r="T2">
+        <v>686</v>
+      </c>
+      <c r="U2">
+        <v>686</v>
+      </c>
+      <c r="V2">
+        <v>337</v>
+      </c>
+      <c r="W2">
+        <v>337</v>
+      </c>
+      <c r="X2">
+        <v>337</v>
+      </c>
+      <c r="Y2">
+        <v>337</v>
+      </c>
+      <c r="Z2">
+        <v>337</v>
+      </c>
+      <c r="AA2">
+        <v>337</v>
+      </c>
+      <c r="AB2">
+        <v>337</v>
+      </c>
+      <c r="AC2">
+        <v>337</v>
+      </c>
+      <c r="AD2">
+        <v>337</v>
+      </c>
+      <c r="AE2">
+        <v>337</v>
+      </c>
+      <c r="AF2">
+        <v>337</v>
+      </c>
+      <c r="AG2">
+        <v>337</v>
+      </c>
+      <c r="AH2">
+        <v>337</v>
+      </c>
+      <c r="AI2">
+        <v>337</v>
+      </c>
+      <c r="AJ2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>1501</v>
+      </c>
+      <c r="D3">
+        <v>3500</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>99999</v>
+      </c>
+      <c r="G3">
+        <v>2091</v>
+      </c>
+      <c r="H3">
+        <v>2091</v>
+      </c>
+      <c r="I3">
+        <v>2091</v>
+      </c>
+      <c r="J3">
+        <v>2091</v>
+      </c>
+      <c r="K3">
+        <v>2091</v>
+      </c>
+      <c r="L3">
+        <v>2091</v>
+      </c>
+      <c r="M3">
+        <v>1212</v>
+      </c>
+      <c r="N3">
+        <v>1212</v>
+      </c>
+      <c r="O3">
+        <v>1212</v>
+      </c>
+      <c r="P3">
+        <v>1212</v>
+      </c>
+      <c r="Q3">
+        <v>1212</v>
+      </c>
+      <c r="R3">
+        <v>1212</v>
+      </c>
+      <c r="S3">
+        <v>1212</v>
+      </c>
+      <c r="T3">
+        <v>1212</v>
+      </c>
+      <c r="U3">
+        <v>1212</v>
+      </c>
+      <c r="V3">
+        <v>686</v>
+      </c>
+      <c r="W3">
+        <v>686</v>
+      </c>
+      <c r="X3">
+        <v>686</v>
+      </c>
+      <c r="Y3">
+        <v>686</v>
+      </c>
+      <c r="Z3">
+        <v>686</v>
+      </c>
+      <c r="AA3">
+        <v>686</v>
+      </c>
+      <c r="AB3">
+        <v>686</v>
+      </c>
+      <c r="AC3">
+        <v>686</v>
+      </c>
+      <c r="AD3">
+        <v>686</v>
+      </c>
+      <c r="AE3">
+        <v>686</v>
+      </c>
+      <c r="AF3">
+        <v>686</v>
+      </c>
+      <c r="AG3">
+        <v>686</v>
+      </c>
+      <c r="AH3">
+        <v>686</v>
+      </c>
+      <c r="AI3">
+        <v>686</v>
+      </c>
+      <c r="AJ3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>3501</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>99999</v>
+      </c>
+      <c r="G4">
+        <v>3141</v>
+      </c>
+      <c r="H4">
+        <v>3141</v>
+      </c>
+      <c r="I4">
+        <v>3141</v>
+      </c>
+      <c r="J4">
+        <v>3141</v>
+      </c>
+      <c r="K4">
+        <v>3141</v>
+      </c>
+      <c r="L4">
+        <v>3141</v>
+      </c>
+      <c r="M4">
+        <v>2614</v>
+      </c>
+      <c r="N4">
+        <v>2614</v>
+      </c>
+      <c r="O4">
+        <v>2614</v>
+      </c>
+      <c r="P4">
+        <v>2614</v>
+      </c>
+      <c r="Q4">
+        <v>2614</v>
+      </c>
+      <c r="R4">
+        <v>2614</v>
+      </c>
+      <c r="S4">
+        <v>2614</v>
+      </c>
+      <c r="T4">
+        <v>2614</v>
+      </c>
+      <c r="U4">
+        <v>2614</v>
+      </c>
+      <c r="V4">
+        <v>1033</v>
+      </c>
+      <c r="W4">
+        <v>1033</v>
+      </c>
+      <c r="X4">
+        <v>1033</v>
+      </c>
+      <c r="Y4">
+        <v>1033</v>
+      </c>
+      <c r="Z4">
+        <v>1033</v>
+      </c>
+      <c r="AA4">
+        <v>1033</v>
+      </c>
+      <c r="AB4">
+        <v>1033</v>
+      </c>
+      <c r="AC4">
+        <v>1033</v>
+      </c>
+      <c r="AD4">
+        <v>1033</v>
+      </c>
+      <c r="AE4">
+        <v>1033</v>
+      </c>
+      <c r="AF4">
+        <v>1033</v>
+      </c>
+      <c r="AG4">
+        <v>1033</v>
+      </c>
+      <c r="AH4">
+        <v>1033</v>
+      </c>
+      <c r="AI4">
+        <v>1033</v>
+      </c>
+      <c r="AJ4">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>5001</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>99999</v>
+      </c>
+      <c r="G5">
+        <v>3483</v>
+      </c>
+      <c r="H5">
+        <v>3483</v>
+      </c>
+      <c r="I5">
+        <v>3483</v>
+      </c>
+      <c r="J5">
+        <v>3483</v>
+      </c>
+      <c r="K5">
+        <v>3483</v>
+      </c>
+      <c r="L5">
+        <v>3483</v>
+      </c>
+      <c r="M5">
+        <v>2962</v>
+      </c>
+      <c r="N5">
+        <v>2962</v>
+      </c>
+      <c r="O5">
+        <v>2962</v>
+      </c>
+      <c r="P5">
+        <v>2962</v>
+      </c>
+      <c r="Q5">
+        <v>2962</v>
+      </c>
+      <c r="R5">
+        <v>2962</v>
+      </c>
+      <c r="S5">
+        <v>2962</v>
+      </c>
+      <c r="T5">
+        <v>2962</v>
+      </c>
+      <c r="U5">
+        <v>2962</v>
+      </c>
+      <c r="V5">
+        <v>1389</v>
+      </c>
+      <c r="W5">
+        <v>1389</v>
+      </c>
+      <c r="X5">
+        <v>1389</v>
+      </c>
+      <c r="Y5">
+        <v>1389</v>
+      </c>
+      <c r="Z5">
+        <v>1389</v>
+      </c>
+      <c r="AA5">
+        <v>1389</v>
+      </c>
+      <c r="AB5">
+        <v>1389</v>
+      </c>
+      <c r="AC5">
+        <v>1389</v>
+      </c>
+      <c r="AD5">
+        <v>1389</v>
+      </c>
+      <c r="AE5">
+        <v>1389</v>
+      </c>
+      <c r="AF5">
+        <v>1389</v>
+      </c>
+      <c r="AG5">
+        <v>1389</v>
+      </c>
+      <c r="AH5">
+        <v>1389</v>
+      </c>
+      <c r="AI5">
+        <v>1389</v>
+      </c>
+      <c r="AJ5">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>10001</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>99999</v>
+      </c>
+      <c r="G6">
+        <v>4191</v>
+      </c>
+      <c r="H6">
+        <v>4191</v>
+      </c>
+      <c r="I6">
+        <v>4191</v>
+      </c>
+      <c r="J6">
+        <v>4191</v>
+      </c>
+      <c r="K6">
+        <v>4191</v>
+      </c>
+      <c r="L6">
+        <v>4191</v>
+      </c>
+      <c r="M6">
+        <v>3487</v>
+      </c>
+      <c r="N6">
+        <v>3487</v>
+      </c>
+      <c r="O6">
+        <v>3487</v>
+      </c>
+      <c r="P6">
+        <v>3487</v>
+      </c>
+      <c r="Q6">
+        <v>3487</v>
+      </c>
+      <c r="R6">
+        <v>3487</v>
+      </c>
+      <c r="S6">
+        <v>3487</v>
+      </c>
+      <c r="T6">
+        <v>3487</v>
+      </c>
+      <c r="U6">
+        <v>3487</v>
+      </c>
+      <c r="V6">
+        <v>2091</v>
+      </c>
+      <c r="W6">
+        <v>2091</v>
+      </c>
+      <c r="X6">
+        <v>2091</v>
+      </c>
+      <c r="Y6">
+        <v>2091</v>
+      </c>
+      <c r="Z6">
+        <v>2091</v>
+      </c>
+      <c r="AA6">
+        <v>2091</v>
+      </c>
+      <c r="AB6">
+        <v>2091</v>
+      </c>
+      <c r="AC6">
+        <v>2091</v>
+      </c>
+      <c r="AD6">
+        <v>2091</v>
+      </c>
+      <c r="AE6">
+        <v>2091</v>
+      </c>
+      <c r="AF6">
+        <v>2091</v>
+      </c>
+      <c r="AG6">
+        <v>2091</v>
+      </c>
+      <c r="AH6">
+        <v>2091</v>
+      </c>
+      <c r="AI6">
+        <v>2091</v>
+      </c>
+      <c r="AJ6">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>20001</v>
+      </c>
+      <c r="D7">
+        <v>999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>99999</v>
+      </c>
+      <c r="G7">
+        <v>5242</v>
+      </c>
+      <c r="H7">
+        <v>5242</v>
+      </c>
+      <c r="I7">
+        <v>5242</v>
+      </c>
+      <c r="J7">
+        <v>5242</v>
+      </c>
+      <c r="K7">
+        <v>5242</v>
+      </c>
+      <c r="L7">
+        <v>5242</v>
+      </c>
+      <c r="M7">
+        <v>4191</v>
+      </c>
+      <c r="N7">
+        <v>4191</v>
+      </c>
+      <c r="O7">
+        <v>4191</v>
+      </c>
+      <c r="P7">
+        <v>4191</v>
+      </c>
+      <c r="Q7">
+        <v>4191</v>
+      </c>
+      <c r="R7">
+        <v>4191</v>
+      </c>
+      <c r="S7">
+        <v>4191</v>
+      </c>
+      <c r="T7">
+        <v>4191</v>
+      </c>
+      <c r="U7">
+        <v>4191</v>
+      </c>
+      <c r="V7">
+        <v>2436</v>
+      </c>
+      <c r="W7">
+        <v>2436</v>
+      </c>
+      <c r="X7">
+        <v>2436</v>
+      </c>
+      <c r="Y7">
+        <v>2436</v>
+      </c>
+      <c r="Z7">
+        <v>2436</v>
+      </c>
+      <c r="AA7">
+        <v>2436</v>
+      </c>
+      <c r="AB7">
+        <v>2436</v>
+      </c>
+      <c r="AC7">
+        <v>2436</v>
+      </c>
+      <c r="AD7">
+        <v>2436</v>
+      </c>
+      <c r="AE7">
+        <v>2436</v>
+      </c>
+      <c r="AF7">
+        <v>2436</v>
+      </c>
+      <c r="AG7">
+        <v>2436</v>
+      </c>
+      <c r="AH7">
+        <v>2436</v>
+      </c>
+      <c r="AI7">
+        <v>2436</v>
+      </c>
+      <c r="AJ7">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>999999</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>727</v>
+      </c>
+      <c r="H8">
+        <v>727</v>
+      </c>
+      <c r="I8">
+        <v>727</v>
+      </c>
+      <c r="J8">
+        <v>727</v>
+      </c>
+      <c r="K8">
+        <v>727</v>
+      </c>
+      <c r="L8">
+        <v>727</v>
+      </c>
+      <c r="M8">
+        <v>434</v>
+      </c>
+      <c r="N8">
+        <v>434</v>
+      </c>
+      <c r="O8">
+        <v>434</v>
+      </c>
+      <c r="P8">
+        <v>434</v>
+      </c>
+      <c r="Q8">
+        <v>434</v>
+      </c>
+      <c r="R8">
+        <v>434</v>
+      </c>
+      <c r="S8">
+        <v>434</v>
+      </c>
+      <c r="T8">
+        <v>434</v>
+      </c>
+      <c r="U8">
+        <v>434</v>
+      </c>
+      <c r="V8">
+        <v>190</v>
+      </c>
+      <c r="W8">
+        <v>190</v>
+      </c>
+      <c r="X8">
+        <v>190</v>
+      </c>
+      <c r="Y8">
+        <v>190</v>
+      </c>
+      <c r="Z8">
+        <v>190</v>
+      </c>
+      <c r="AA8">
+        <v>190</v>
+      </c>
+      <c r="AB8">
+        <v>190</v>
+      </c>
+      <c r="AC8">
+        <v>190</v>
+      </c>
+      <c r="AD8">
+        <v>190</v>
+      </c>
+      <c r="AE8">
+        <v>190</v>
+      </c>
+      <c r="AF8">
+        <v>190</v>
+      </c>
+      <c r="AG8">
+        <v>190</v>
+      </c>
+      <c r="AH8">
+        <v>190</v>
+      </c>
+      <c r="AI8">
+        <v>190</v>
+      </c>
+      <c r="AJ8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>999999</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>871</v>
+      </c>
+      <c r="H9">
+        <v>871</v>
+      </c>
+      <c r="I9">
+        <v>871</v>
+      </c>
+      <c r="J9">
+        <v>871</v>
+      </c>
+      <c r="K9">
+        <v>871</v>
+      </c>
+      <c r="L9">
+        <v>871</v>
+      </c>
+      <c r="M9">
+        <v>727</v>
+      </c>
+      <c r="N9">
+        <v>727</v>
+      </c>
+      <c r="O9">
+        <v>727</v>
+      </c>
+      <c r="P9">
+        <v>727</v>
+      </c>
+      <c r="Q9">
+        <v>727</v>
+      </c>
+      <c r="R9">
+        <v>727</v>
+      </c>
+      <c r="S9">
+        <v>727</v>
+      </c>
+      <c r="T9">
+        <v>727</v>
+      </c>
+      <c r="U9">
+        <v>727</v>
+      </c>
+      <c r="V9">
+        <v>288</v>
+      </c>
+      <c r="W9">
+        <v>288</v>
+      </c>
+      <c r="X9">
+        <v>288</v>
+      </c>
+      <c r="Y9">
+        <v>288</v>
+      </c>
+      <c r="Z9">
+        <v>288</v>
+      </c>
+      <c r="AA9">
+        <v>288</v>
+      </c>
+      <c r="AB9">
+        <v>288</v>
+      </c>
+      <c r="AC9">
+        <v>288</v>
+      </c>
+      <c r="AD9">
+        <v>288</v>
+      </c>
+      <c r="AE9">
+        <v>288</v>
+      </c>
+      <c r="AF9">
+        <v>288</v>
+      </c>
+      <c r="AG9">
+        <v>288</v>
+      </c>
+      <c r="AH9">
+        <v>288</v>
+      </c>
+      <c r="AI9">
+        <v>288</v>
+      </c>
+      <c r="AJ9">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>999999</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>970</v>
+      </c>
+      <c r="H10">
+        <v>970</v>
+      </c>
+      <c r="I10">
+        <v>970</v>
+      </c>
+      <c r="J10">
+        <v>970</v>
+      </c>
+      <c r="K10">
+        <v>970</v>
+      </c>
+      <c r="L10">
+        <v>970</v>
+      </c>
+      <c r="M10">
+        <v>823</v>
+      </c>
+      <c r="N10">
+        <v>823</v>
+      </c>
+      <c r="O10">
+        <v>823</v>
+      </c>
+      <c r="P10">
+        <v>823</v>
+      </c>
+      <c r="Q10">
+        <v>823</v>
+      </c>
+      <c r="R10">
+        <v>823</v>
+      </c>
+      <c r="S10">
+        <v>823</v>
+      </c>
+      <c r="T10">
+        <v>823</v>
+      </c>
+      <c r="U10">
+        <v>823</v>
+      </c>
+      <c r="V10">
+        <v>384</v>
+      </c>
+      <c r="W10">
+        <v>384</v>
+      </c>
+      <c r="X10">
+        <v>384</v>
+      </c>
+      <c r="Y10">
+        <v>384</v>
+      </c>
+      <c r="Z10">
+        <v>384</v>
+      </c>
+      <c r="AA10">
+        <v>384</v>
+      </c>
+      <c r="AB10">
+        <v>384</v>
+      </c>
+      <c r="AC10">
+        <v>384</v>
+      </c>
+      <c r="AD10">
+        <v>384</v>
+      </c>
+      <c r="AE10">
+        <v>384</v>
+      </c>
+      <c r="AF10">
+        <v>384</v>
+      </c>
+      <c r="AG10">
+        <v>384</v>
+      </c>
+      <c r="AH10">
+        <v>384</v>
+      </c>
+      <c r="AI10">
+        <v>384</v>
+      </c>
+      <c r="AJ10">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>999999</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>99999</v>
+      </c>
+      <c r="G11">
+        <v>1163</v>
+      </c>
+      <c r="H11">
+        <v>1163</v>
+      </c>
+      <c r="I11">
+        <v>1163</v>
+      </c>
+      <c r="J11">
+        <v>1163</v>
+      </c>
+      <c r="K11">
+        <v>1163</v>
+      </c>
+      <c r="L11">
+        <v>1163</v>
+      </c>
+      <c r="M11">
+        <v>970</v>
+      </c>
+      <c r="N11">
+        <v>970</v>
+      </c>
+      <c r="O11">
+        <v>970</v>
+      </c>
+      <c r="P11">
+        <v>970</v>
+      </c>
+      <c r="Q11">
+        <v>970</v>
+      </c>
+      <c r="R11">
+        <v>970</v>
+      </c>
+      <c r="S11">
+        <v>970</v>
+      </c>
+      <c r="T11">
+        <v>970</v>
+      </c>
+      <c r="U11">
+        <v>970</v>
+      </c>
+      <c r="V11">
+        <v>581</v>
+      </c>
+      <c r="W11">
+        <v>581</v>
+      </c>
+      <c r="X11">
+        <v>581</v>
+      </c>
+      <c r="Y11">
+        <v>581</v>
+      </c>
+      <c r="Z11">
+        <v>581</v>
+      </c>
+      <c r="AA11">
+        <v>581</v>
+      </c>
+      <c r="AB11">
+        <v>581</v>
+      </c>
+      <c r="AC11">
+        <v>581</v>
+      </c>
+      <c r="AD11">
+        <v>581</v>
+      </c>
+      <c r="AE11">
+        <v>581</v>
+      </c>
+      <c r="AF11">
+        <v>581</v>
+      </c>
+      <c r="AG11">
+        <v>581</v>
+      </c>
+      <c r="AH11">
+        <v>581</v>
+      </c>
+      <c r="AI11">
+        <v>581</v>
+      </c>
+      <c r="AJ11">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F81757-FCA6-4488-9A20-9648BED5FF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E015CF9-0A48-441C-B9CF-083211F71E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>min_fiyat</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>oturma_yeri_max</t>
+  </si>
+  <si>
+    <t>midibus</t>
   </si>
 </sst>
 </file>
@@ -5776,10 +5779,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C78D9E-378F-4AC6-AC1B-DEEA36CD5470}">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5788,7 +5791,7 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6578,94 +6581,94 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="H8">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="I8">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="J8">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="K8">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="L8">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="M8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="N8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="O8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="P8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="Q8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="R8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="S8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="T8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="U8">
-        <v>434</v>
+        <v>1737</v>
       </c>
       <c r="V8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="W8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="X8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="Y8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="Z8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AA8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AB8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AC8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AD8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AE8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AF8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AG8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AH8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AI8">
-        <v>190</v>
+        <v>761</v>
       </c>
       <c r="AJ8">
-        <v>190</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -6688,94 +6691,94 @@
         <v>35</v>
       </c>
       <c r="G9">
-        <v>871</v>
+        <v>3487</v>
       </c>
       <c r="H9">
-        <v>871</v>
+        <v>3487</v>
       </c>
       <c r="I9">
-        <v>871</v>
+        <v>3487</v>
       </c>
       <c r="J9">
-        <v>871</v>
+        <v>3487</v>
       </c>
       <c r="K9">
-        <v>871</v>
+        <v>3487</v>
       </c>
       <c r="L9">
-        <v>871</v>
+        <v>3487</v>
       </c>
       <c r="M9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="N9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="O9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="P9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="Q9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="R9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="S9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="T9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="U9">
-        <v>727</v>
+        <v>2908</v>
       </c>
       <c r="V9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="W9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="X9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="Y9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="Z9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AA9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AB9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AC9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AD9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AE9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AF9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AG9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AH9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AI9">
-        <v>288</v>
+        <v>1152</v>
       </c>
       <c r="AJ9">
-        <v>288</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -6798,94 +6801,94 @@
         <v>45</v>
       </c>
       <c r="G10">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="H10">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="I10">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="J10">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="K10">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="L10">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="M10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="N10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="O10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="P10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="Q10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="R10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="S10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="T10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="U10">
-        <v>823</v>
+        <v>3292</v>
       </c>
       <c r="V10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="W10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="X10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="Y10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="Z10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AA10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AB10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AC10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AD10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AE10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AF10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AG10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AH10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AI10">
-        <v>384</v>
+        <v>1536</v>
       </c>
       <c r="AJ10">
-        <v>384</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -6908,94 +6911,534 @@
         <v>99999</v>
       </c>
       <c r="G11">
-        <v>1163</v>
+        <v>4655</v>
       </c>
       <c r="H11">
-        <v>1163</v>
+        <v>4655</v>
       </c>
       <c r="I11">
-        <v>1163</v>
+        <v>4655</v>
       </c>
       <c r="J11">
-        <v>1163</v>
+        <v>4655</v>
       </c>
       <c r="K11">
-        <v>1163</v>
+        <v>4655</v>
       </c>
       <c r="L11">
-        <v>1163</v>
+        <v>4655</v>
       </c>
       <c r="M11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="N11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="O11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="P11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="Q11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="R11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="S11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="T11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="U11">
-        <v>970</v>
+        <v>3881</v>
       </c>
       <c r="V11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="W11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="X11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="Y11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="Z11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AA11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AB11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AC11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AD11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AE11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AF11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AG11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AH11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AI11">
-        <v>581</v>
+        <v>2324</v>
       </c>
       <c r="AJ11">
-        <v>581</v>
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>999999</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>2908</v>
+      </c>
+      <c r="H12">
+        <v>2908</v>
+      </c>
+      <c r="I12">
+        <v>2908</v>
+      </c>
+      <c r="J12">
+        <v>2908</v>
+      </c>
+      <c r="K12">
+        <v>2908</v>
+      </c>
+      <c r="L12">
+        <v>2908</v>
+      </c>
+      <c r="M12">
+        <v>1737</v>
+      </c>
+      <c r="N12">
+        <v>1737</v>
+      </c>
+      <c r="O12">
+        <v>1737</v>
+      </c>
+      <c r="P12">
+        <v>1737</v>
+      </c>
+      <c r="Q12">
+        <v>1737</v>
+      </c>
+      <c r="R12">
+        <v>1737</v>
+      </c>
+      <c r="S12">
+        <v>1737</v>
+      </c>
+      <c r="T12">
+        <v>1737</v>
+      </c>
+      <c r="U12">
+        <v>1737</v>
+      </c>
+      <c r="V12">
+        <v>761</v>
+      </c>
+      <c r="W12">
+        <v>761</v>
+      </c>
+      <c r="X12">
+        <v>761</v>
+      </c>
+      <c r="Y12">
+        <v>761</v>
+      </c>
+      <c r="Z12">
+        <v>761</v>
+      </c>
+      <c r="AA12">
+        <v>761</v>
+      </c>
+      <c r="AB12">
+        <v>761</v>
+      </c>
+      <c r="AC12">
+        <v>761</v>
+      </c>
+      <c r="AD12">
+        <v>761</v>
+      </c>
+      <c r="AE12">
+        <v>761</v>
+      </c>
+      <c r="AF12">
+        <v>761</v>
+      </c>
+      <c r="AG12">
+        <v>761</v>
+      </c>
+      <c r="AH12">
+        <v>761</v>
+      </c>
+      <c r="AI12">
+        <v>761</v>
+      </c>
+      <c r="AJ12">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>999999</v>
+      </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>3487</v>
+      </c>
+      <c r="H13">
+        <v>3487</v>
+      </c>
+      <c r="I13">
+        <v>3487</v>
+      </c>
+      <c r="J13">
+        <v>3487</v>
+      </c>
+      <c r="K13">
+        <v>3487</v>
+      </c>
+      <c r="L13">
+        <v>3487</v>
+      </c>
+      <c r="M13">
+        <v>2908</v>
+      </c>
+      <c r="N13">
+        <v>2908</v>
+      </c>
+      <c r="O13">
+        <v>2908</v>
+      </c>
+      <c r="P13">
+        <v>2908</v>
+      </c>
+      <c r="Q13">
+        <v>2908</v>
+      </c>
+      <c r="R13">
+        <v>2908</v>
+      </c>
+      <c r="S13">
+        <v>2908</v>
+      </c>
+      <c r="T13">
+        <v>2908</v>
+      </c>
+      <c r="U13">
+        <v>2908</v>
+      </c>
+      <c r="V13">
+        <v>1152</v>
+      </c>
+      <c r="W13">
+        <v>1152</v>
+      </c>
+      <c r="X13">
+        <v>1152</v>
+      </c>
+      <c r="Y13">
+        <v>1152</v>
+      </c>
+      <c r="Z13">
+        <v>1152</v>
+      </c>
+      <c r="AA13">
+        <v>1152</v>
+      </c>
+      <c r="AB13">
+        <v>1152</v>
+      </c>
+      <c r="AC13">
+        <v>1152</v>
+      </c>
+      <c r="AD13">
+        <v>1152</v>
+      </c>
+      <c r="AE13">
+        <v>1152</v>
+      </c>
+      <c r="AF13">
+        <v>1152</v>
+      </c>
+      <c r="AG13">
+        <v>1152</v>
+      </c>
+      <c r="AH13">
+        <v>1152</v>
+      </c>
+      <c r="AI13">
+        <v>1152</v>
+      </c>
+      <c r="AJ13">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>999999</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>3881</v>
+      </c>
+      <c r="H14">
+        <v>3881</v>
+      </c>
+      <c r="I14">
+        <v>3881</v>
+      </c>
+      <c r="J14">
+        <v>3881</v>
+      </c>
+      <c r="K14">
+        <v>3881</v>
+      </c>
+      <c r="L14">
+        <v>3881</v>
+      </c>
+      <c r="M14">
+        <v>3292</v>
+      </c>
+      <c r="N14">
+        <v>3292</v>
+      </c>
+      <c r="O14">
+        <v>3292</v>
+      </c>
+      <c r="P14">
+        <v>3292</v>
+      </c>
+      <c r="Q14">
+        <v>3292</v>
+      </c>
+      <c r="R14">
+        <v>3292</v>
+      </c>
+      <c r="S14">
+        <v>3292</v>
+      </c>
+      <c r="T14">
+        <v>3292</v>
+      </c>
+      <c r="U14">
+        <v>3292</v>
+      </c>
+      <c r="V14">
+        <v>1536</v>
+      </c>
+      <c r="W14">
+        <v>1536</v>
+      </c>
+      <c r="X14">
+        <v>1536</v>
+      </c>
+      <c r="Y14">
+        <v>1536</v>
+      </c>
+      <c r="Z14">
+        <v>1536</v>
+      </c>
+      <c r="AA14">
+        <v>1536</v>
+      </c>
+      <c r="AB14">
+        <v>1536</v>
+      </c>
+      <c r="AC14">
+        <v>1536</v>
+      </c>
+      <c r="AD14">
+        <v>1536</v>
+      </c>
+      <c r="AE14">
+        <v>1536</v>
+      </c>
+      <c r="AF14">
+        <v>1536</v>
+      </c>
+      <c r="AG14">
+        <v>1536</v>
+      </c>
+      <c r="AH14">
+        <v>1536</v>
+      </c>
+      <c r="AI14">
+        <v>1536</v>
+      </c>
+      <c r="AJ14">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>999999</v>
+      </c>
+      <c r="E15">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>99999</v>
+      </c>
+      <c r="G15">
+        <v>4655</v>
+      </c>
+      <c r="H15">
+        <v>4655</v>
+      </c>
+      <c r="I15">
+        <v>4655</v>
+      </c>
+      <c r="J15">
+        <v>4655</v>
+      </c>
+      <c r="K15">
+        <v>4655</v>
+      </c>
+      <c r="L15">
+        <v>4655</v>
+      </c>
+      <c r="M15">
+        <v>3881</v>
+      </c>
+      <c r="N15">
+        <v>3881</v>
+      </c>
+      <c r="O15">
+        <v>3881</v>
+      </c>
+      <c r="P15">
+        <v>3881</v>
+      </c>
+      <c r="Q15">
+        <v>3881</v>
+      </c>
+      <c r="R15">
+        <v>3881</v>
+      </c>
+      <c r="S15">
+        <v>3881</v>
+      </c>
+      <c r="T15">
+        <v>3881</v>
+      </c>
+      <c r="U15">
+        <v>3881</v>
+      </c>
+      <c r="V15">
+        <v>2324</v>
+      </c>
+      <c r="W15">
+        <v>2324</v>
+      </c>
+      <c r="X15">
+        <v>2324</v>
+      </c>
+      <c r="Y15">
+        <v>2324</v>
+      </c>
+      <c r="Z15">
+        <v>2324</v>
+      </c>
+      <c r="AA15">
+        <v>2324</v>
+      </c>
+      <c r="AB15">
+        <v>2324</v>
+      </c>
+      <c r="AC15">
+        <v>2324</v>
+      </c>
+      <c r="AD15">
+        <v>2324</v>
+      </c>
+      <c r="AE15">
+        <v>2324</v>
+      </c>
+      <c r="AF15">
+        <v>2324</v>
+      </c>
+      <c r="AG15">
+        <v>2324</v>
+      </c>
+      <c r="AH15">
+        <v>2324</v>
+      </c>
+      <c r="AI15">
+        <v>2324</v>
+      </c>
+      <c r="AJ15">
+        <v>2324</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E015CF9-0A48-441C-B9CF-083211F71E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B79A5-45CB-439B-BCE9-3F94DDD9700B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -47,9 +47,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3DD08A5B-3800-4A88-B25B-DDFA39A80032}</author>
+    <author>tc={FF045222-B2DB-497D-8BC8-9004AA1357A3}</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3DD08A5B-3800-4A88-B25B-DDFA39A80032}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    sadece CO2 emisyonuna dayali MTV modelleri icin kullaniliyor</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{FF045222-B2DB-497D-8BC8-9004AA1357A3}">
       <text>
         <t>[Yorum yazışması]
 Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -62,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
   <si>
     <t>min_fiyat</t>
   </si>
@@ -80,9 +89,6 @@
   </si>
   <si>
     <t>Arac omru</t>
-  </si>
-  <si>
-    <t>Gram Basina MTV</t>
   </si>
   <si>
     <t>Degisken</t>
@@ -261,6 +267,12 @@
   <si>
     <t>midibus</t>
   </si>
+  <si>
+    <t>Gram Basina MTV for PC - LCV</t>
+  </si>
+  <si>
+    <t>Gram Basina MTV for HCV</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +282,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +343,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -816,6 +834,9 @@
   <threadedComment ref="A3" dT="2020-09-21T04:40:15.87" personId="{E4D15654-4C18-42E6-B82D-189EA478ACE1}" id="{3DD08A5B-3800-4A88-B25B-DDFA39A80032}">
     <text>sadece CO2 emisyonuna dayali MTV modelleri icin kullaniliyor</text>
   </threadedComment>
+  <threadedComment ref="A4" dT="2020-09-21T04:40:15.87" personId="{E4D15654-4C18-42E6-B82D-189EA478ACE1}" id="{FF045222-B2DB-497D-8BC8-9004AA1357A3}">
+    <text>sadece CO2 emisyonuna dayali MTV modelleri icin kullaniliyor</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -824,23 +845,23 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,10 +874,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -903,94 +932,94 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -3152,10 +3181,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3235,13 +3264,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3252,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,7 +3292,7 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,7 +3303,7 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,7 +3314,7 @@
         <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,7 +3325,7 @@
         <v>9999</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3353,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3333,25 +3362,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3578,109 +3607,109 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -3688,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3798,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3908,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4018,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4128,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>1501</v>
@@ -4238,7 +4267,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>3501</v>
@@ -4348,7 +4377,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>5001</v>
@@ -4458,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>10001</v>
@@ -4568,7 +4597,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>20001</v>
@@ -4678,7 +4707,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4788,7 +4817,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1501</v>
@@ -4898,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>3501</v>
@@ -5008,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>5001</v>
@@ -5118,7 +5147,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>10001</v>
@@ -5228,7 +5257,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>20001</v>
@@ -5351,13 +5380,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,7 +5397,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,7 +5408,7 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,7 +5419,7 @@
         <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,7 +5430,7 @@
         <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,7 +5441,7 @@
         <v>9999</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5438,19 +5467,19 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5781,7 +5810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C78D9E-378F-4AC6-AC1B-DEEA36CD5470}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
@@ -5796,109 +5825,109 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -5906,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6016,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>1501</v>
@@ -6126,7 +6155,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>3501</v>
@@ -6236,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>5001</v>
@@ -6346,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>10001</v>
@@ -6456,7 +6485,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>20001</v>
@@ -6566,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -6676,7 +6705,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -6786,7 +6815,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -6896,7 +6925,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -7006,7 +7035,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7116,7 +7145,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7226,7 +7255,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -7336,7 +7365,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>0</v>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B79A5-45CB-439B-BCE9-3F94DDD9700B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8828E2B-82F5-4D1A-8354-B515628E4C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,12 +343,6 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -848,7 +842,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +871,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +879,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8828E2B-82F5-4D1A-8354-B515628E4C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF93FD9-DD7F-4348-AFD1-3891C2553F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,7 +842,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF93FD9-DD7F-4348-AFD1-3891C2553F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C073B9-59E3-4D81-9EB4-731E07B0EFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -465,13 +465,8 @@
       <sheetName val="hybrid"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>0.18</v>
-          </cell>
-        </row>
         <row r="3">
           <cell r="B3">
             <v>85000</v>
@@ -488,10 +483,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -841,7 +836,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -894,7 +889,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:AI1"/>
+      <selection activeCell="F21" sqref="F12:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3332,8 +3327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A912B-ADD4-4D63-9B17-9F969586F6B8}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3395,19 +3390,23 @@
         <v>85000</v>
       </c>
       <c r="F2" s="7">
-        <v>1200</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1400</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1600</v>
-      </c>
-      <c r="I2" s="7">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="7">
         <v>2200</v>
+      </c>
+      <c r="G2">
+        <f>200+F2</f>
+        <v>2400</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="0">200+G2</f>
+        <v>2600</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3428,19 +3427,23 @@
         <v>130000</v>
       </c>
       <c r="F3" s="7">
-        <v>1800</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2200</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2400</v>
-      </c>
-      <c r="J3" s="7">
         <v>2600</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:J4" si="1">200+F3</f>
+        <v>2800</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>3400</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3460,19 +3463,23 @@
         <v>99999999</v>
       </c>
       <c r="F4" s="7">
-        <v>2400</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2600</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2800</v>
-      </c>
-      <c r="I4" s="7">
         <v>3000</v>
       </c>
-      <c r="J4" s="7">
+      <c r="G4">
+        <f t="shared" si="1"/>
         <v>3200</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>3800</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3582,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040514E0-2827-4775-9E6B-92D0C2089053}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:AJ1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5448,12 +5455,13 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5481,19 +5489,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="D2">
-        <v>1800</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2000</v>
+        <v>2400</v>
+      </c>
+      <c r="E2">
+        <v>2600</v>
       </c>
       <c r="F2">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -5504,19 +5512,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="C3">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="D3">
-        <v>2600</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2800</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2800</v>
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>3200</v>
+      </c>
+      <c r="F3">
+        <v>3400</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -5527,19 +5535,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C4">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="D4">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E4">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5550,19 +5558,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D5">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E5">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="F5">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5573,19 +5581,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C6">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="D6">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E6">
-        <v>2400</v>
-      </c>
-      <c r="F6" s="7">
         <v>2600</v>
+      </c>
+      <c r="F6">
+        <v>2800</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5596,19 +5604,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="C7">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="D7">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E7">
-        <v>3400</v>
-      </c>
-      <c r="F7" s="7">
         <v>3600</v>
+      </c>
+      <c r="F7">
+        <v>3800</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5619,19 +5627,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="C8">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="D8">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E8">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="7">
         <v>3800</v>
+      </c>
+      <c r="F8">
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5639,19 +5647,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="C9">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="D9">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E9">
-        <v>4400</v>
-      </c>
-      <c r="F9" s="7">
         <v>4600</v>
+      </c>
+      <c r="F9">
+        <v>4800</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5659,19 +5667,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="C10">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="D10">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E10">
-        <v>5400</v>
-      </c>
-      <c r="F10" s="7">
         <v>5600</v>
+      </c>
+      <c r="F10">
+        <v>5800</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5679,19 +5687,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C11">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D11">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="E11">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="F11">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5699,19 +5707,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="D12">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="E12">
-        <v>2400</v>
-      </c>
-      <c r="F12" s="7">
         <v>2600</v>
+      </c>
+      <c r="F12">
+        <v>2800</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5719,19 +5727,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="C13">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="D13">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E13">
-        <v>3400</v>
-      </c>
-      <c r="F13" s="7">
         <v>3600</v>
+      </c>
+      <c r="F13">
+        <v>3800</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5739,19 +5747,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="C14">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="D14">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E14">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="7">
         <v>3800</v>
+      </c>
+      <c r="F14">
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5759,19 +5767,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="C15">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="D15">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E15">
-        <v>4400</v>
-      </c>
-      <c r="F15" s="7">
         <v>4600</v>
+      </c>
+      <c r="F15">
+        <v>4800</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5779,19 +5787,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="C16">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="D16">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E16">
-        <v>5400</v>
-      </c>
-      <c r="F16" s="7">
         <v>5600</v>
+      </c>
+      <c r="F16">
+        <v>5800</v>
       </c>
     </row>
   </sheetData>

--- a/r_input/mtv_oranlari.xlsx
+++ b/r_input/mtv_oranlari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcinar\Desktop\TR tax system\TR_tax_system-master_201004_ideal\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C073B9-59E3-4D81-9EB4-731E07B0EFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10169A4-002A-45C0-B306-99A02DB76C86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="degiskenler" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="LCV_MTV_oranlari" sheetId="7" r:id="rId6"/>
     <sheet name="lcv_co2_araliklari" sheetId="9" r:id="rId7"/>
     <sheet name="lcv_co2_aralikli_mtv" sheetId="8" r:id="rId8"/>
-    <sheet name="HCV_MTV" sheetId="10" r:id="rId9"/>
+    <sheet name="HCV_MTV" sheetId="11" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -52,17 +50,17 @@
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3DD08A5B-3800-4A88-B25B-DDFA39A80032}">
       <text>
-        <t>[Yorum yazışması]
-Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
-Açıklama:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     sadece CO2 emisyonuna dayali MTV modelleri icin kullaniliyor</t>
       </text>
     </comment>
     <comment ref="A4" authorId="1" shapeId="0" xr:uid="{FF045222-B2DB-497D-8BC8-9004AA1357A3}">
       <text>
-        <t>[Yorum yazışması]
-Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
-Açıklama:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     sadece CO2 emisyonuna dayali MTV modelleri icin kullaniliyor</t>
       </text>
     </comment>
@@ -278,9 +276,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\);\-_);@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\);\-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -405,7 +405,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,28 +417,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="İzlenen Köprü" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Köprü" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Köprü" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Comma" xfId="19" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="19" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -836,8 +839,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -866,7 +869,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +877,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +892,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F12:F21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3241,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EBF5AF-2DC9-47C4-B504-74C43DBA0314}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3327,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A912B-ADD4-4D63-9B17-9F969586F6B8}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3389,22 +3392,22 @@
         <f>[1]mevcut_degiskenler!B3</f>
         <v>85000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>2200</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="11">
         <f>200+F2</f>
         <v>2400</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="11">
         <f t="shared" ref="H2:J2" si="0">200+G2</f>
         <v>2600</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="11">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="11">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -3426,24 +3429,24 @@
         <f>[1]mevcut_degiskenler!B4</f>
         <v>130000</v>
       </c>
-      <c r="F3" s="7">
-        <v>2600</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="10">
+        <v>3000</v>
+      </c>
+      <c r="G3" s="11">
         <f t="shared" ref="G3:J4" si="1">200+F3</f>
-        <v>2800</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="J3">
+      <c r="H3" s="11">
         <f t="shared" si="1"/>
         <v>3400</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="1"/>
+        <v>3800</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3462,24 +3465,24 @@
       <c r="E4">
         <v>99999999</v>
       </c>
-      <c r="F4" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>3200</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+      <c r="F4" s="10">
         <v>3400</v>
       </c>
-      <c r="I4">
+      <c r="G4" s="11">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="J4">
+      <c r="H4" s="11">
         <f t="shared" si="1"/>
         <v>3800</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="1"/>
+        <v>4200</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3499,19 +3502,19 @@
         <f>[1]mevcut_degiskenler!B5</f>
         <v>170000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>4000</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="10">
         <v>4600</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>5200</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="10">
         <v>5800</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="10">
         <v>6400</v>
       </c>
     </row>
@@ -3531,19 +3534,19 @@
       <c r="E6">
         <v>99999999</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>6000</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="10">
         <v>6600</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <v>7200</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="10">
         <v>7800</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="10">
         <v>8400</v>
       </c>
     </row>
@@ -3563,19 +3566,19 @@
       <c r="E7">
         <v>99999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <v>10000</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <v>14000</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="10">
         <v>18000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="10">
         <v>22000</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="10">
         <v>26000</v>
       </c>
     </row>
@@ -3590,7 +3593,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5454,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4A946D-1117-48A1-B365-ECBD931B9CE9}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5489,19 +5492,23 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="C2">
-        <v>2200</v>
+        <f>B2+200</f>
+        <v>2800</v>
       </c>
       <c r="D2">
-        <v>2400</v>
+        <f t="shared" ref="D2:F2" si="0">C2+200</f>
+        <v>3000</v>
       </c>
       <c r="E2">
-        <v>2600</v>
+        <f t="shared" si="0"/>
+        <v>3200</v>
       </c>
       <c r="F2">
-        <v>2800</v>
+        <f t="shared" si="0"/>
+        <v>3400</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -5512,19 +5519,23 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2600</v>
+        <v>3900</v>
       </c>
       <c r="C3">
-        <v>2800</v>
+        <f t="shared" ref="C3:F3" si="1">B3+200</f>
+        <v>4100</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <f t="shared" si="1"/>
+        <v>4300</v>
       </c>
       <c r="E3">
-        <v>3200</v>
+        <f t="shared" si="1"/>
+        <v>4500</v>
       </c>
       <c r="F3">
-        <v>3400</v>
+        <f t="shared" si="1"/>
+        <v>4700</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -5535,19 +5546,23 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="C4">
-        <v>1600</v>
+        <f t="shared" ref="C4:F4" si="2">B4+200</f>
+        <v>2100</v>
       </c>
       <c r="D4">
-        <v>1800</v>
+        <f t="shared" si="2"/>
+        <v>2300</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <f t="shared" si="2"/>
+        <v>2500</v>
       </c>
       <c r="F4">
-        <v>2200</v>
+        <f t="shared" si="2"/>
+        <v>2700</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -5558,19 +5573,23 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="C5">
-        <v>1200</v>
+        <f t="shared" ref="C5:F5" si="3">B5+200</f>
+        <v>1900</v>
       </c>
       <c r="D5">
-        <v>1400</v>
+        <f t="shared" si="3"/>
+        <v>2100</v>
       </c>
       <c r="E5">
-        <v>1600</v>
+        <f t="shared" si="3"/>
+        <v>2300</v>
       </c>
       <c r="F5">
-        <v>1800</v>
+        <f t="shared" si="3"/>
+        <v>2500</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -5581,19 +5600,23 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="C6">
-        <v>2200</v>
+        <f t="shared" ref="C6:F6" si="4">B6+200</f>
+        <v>3700</v>
       </c>
       <c r="D6">
-        <v>2400</v>
+        <f t="shared" si="4"/>
+        <v>3900</v>
       </c>
       <c r="E6">
-        <v>2600</v>
+        <f t="shared" si="4"/>
+        <v>4100</v>
       </c>
       <c r="F6">
-        <v>2800</v>
+        <f t="shared" si="4"/>
+        <v>4300</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5604,19 +5627,23 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3000</v>
+        <v>5300</v>
       </c>
       <c r="C7">
-        <v>3200</v>
+        <f t="shared" ref="C7:F7" si="5">B7+200</f>
+        <v>5500</v>
       </c>
       <c r="D7">
-        <v>3400</v>
+        <f t="shared" si="5"/>
+        <v>5700</v>
       </c>
       <c r="E7">
-        <v>3600</v>
+        <f t="shared" si="5"/>
+        <v>5900</v>
       </c>
       <c r="F7">
-        <v>3800</v>
+        <f t="shared" si="5"/>
+        <v>6100</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -5627,19 +5654,23 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="C8">
-        <v>3400</v>
+        <f t="shared" ref="C8:F8" si="6">B8+200</f>
+        <v>6100</v>
       </c>
       <c r="D8">
-        <v>3600</v>
+        <f t="shared" si="6"/>
+        <v>6300</v>
       </c>
       <c r="E8">
-        <v>3800</v>
+        <f t="shared" si="6"/>
+        <v>6500</v>
       </c>
       <c r="F8">
-        <v>4000</v>
+        <f t="shared" si="6"/>
+        <v>6700</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5647,19 +5678,23 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="C9">
-        <v>4200</v>
+        <f t="shared" ref="C9:F9" si="7">B9+200</f>
+        <v>7300</v>
       </c>
       <c r="D9">
-        <v>4400</v>
+        <f t="shared" si="7"/>
+        <v>7500</v>
       </c>
       <c r="E9">
-        <v>4600</v>
+        <f t="shared" si="7"/>
+        <v>7700</v>
       </c>
       <c r="F9">
-        <v>4800</v>
+        <f t="shared" si="7"/>
+        <v>7900</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5667,19 +5702,23 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5000</v>
+        <v>8900</v>
       </c>
       <c r="C10">
-        <v>5200</v>
+        <f t="shared" ref="C10:F10" si="8">B10+200</f>
+        <v>9100</v>
       </c>
       <c r="D10">
-        <v>5400</v>
+        <f t="shared" si="8"/>
+        <v>9300</v>
       </c>
       <c r="E10">
-        <v>5600</v>
+        <f t="shared" si="8"/>
+        <v>9500</v>
       </c>
       <c r="F10">
-        <v>5800</v>
+        <f t="shared" si="8"/>
+        <v>9700</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5687,19 +5726,23 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="C11">
-        <v>1200</v>
+        <f t="shared" ref="C11:F11" si="9">B11+200</f>
+        <v>1900</v>
       </c>
       <c r="D11">
-        <v>1400</v>
+        <f t="shared" si="9"/>
+        <v>2100</v>
       </c>
       <c r="E11">
-        <v>1600</v>
+        <f t="shared" si="9"/>
+        <v>2300</v>
       </c>
       <c r="F11">
-        <v>1800</v>
+        <f t="shared" si="9"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5707,19 +5750,23 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="C12">
-        <v>2200</v>
+        <f t="shared" ref="C12:F12" si="10">B12+200</f>
+        <v>3700</v>
       </c>
       <c r="D12">
-        <v>2400</v>
+        <f t="shared" si="10"/>
+        <v>3900</v>
       </c>
       <c r="E12">
-        <v>2600</v>
+        <f t="shared" si="10"/>
+        <v>4100</v>
       </c>
       <c r="F12">
-        <v>2800</v>
+        <f t="shared" si="10"/>
+        <v>4300</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5727,19 +5774,23 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3000</v>
+        <v>5300</v>
       </c>
       <c r="C13">
-        <v>3200</v>
+        <f t="shared" ref="C13:F13" si="11">B13+200</f>
+        <v>5500</v>
       </c>
       <c r="D13">
-        <v>3400</v>
+        <f t="shared" si="11"/>
+        <v>5700</v>
       </c>
       <c r="E13">
-        <v>3600</v>
+        <f t="shared" si="11"/>
+        <v>5900</v>
       </c>
       <c r="F13">
-        <v>3800</v>
+        <f t="shared" si="11"/>
+        <v>6100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5747,19 +5798,23 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="C14">
-        <v>3400</v>
+        <f t="shared" ref="C14:F14" si="12">B14+200</f>
+        <v>6100</v>
       </c>
       <c r="D14">
-        <v>3600</v>
+        <f t="shared" si="12"/>
+        <v>6300</v>
       </c>
       <c r="E14">
-        <v>3800</v>
+        <f t="shared" si="12"/>
+        <v>6500</v>
       </c>
       <c r="F14">
-        <v>4000</v>
+        <f t="shared" si="12"/>
+        <v>6700</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5767,19 +5822,23 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="C15">
-        <v>4200</v>
+        <f t="shared" ref="C15:F15" si="13">B15+200</f>
+        <v>7300</v>
       </c>
       <c r="D15">
-        <v>4400</v>
+        <f t="shared" si="13"/>
+        <v>7500</v>
       </c>
       <c r="E15">
-        <v>4600</v>
+        <f t="shared" si="13"/>
+        <v>7700</v>
       </c>
       <c r="F15">
-        <v>4800</v>
+        <f t="shared" si="13"/>
+        <v>7900</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5787,19 +5846,23 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5000</v>
+        <v>8900</v>
       </c>
       <c r="C16">
-        <v>5200</v>
+        <f t="shared" ref="C16:F16" si="14">B16+200</f>
+        <v>9100</v>
       </c>
       <c r="D16">
-        <v>5400</v>
+        <f t="shared" si="14"/>
+        <v>9300</v>
       </c>
       <c r="E16">
-        <v>5600</v>
+        <f t="shared" si="14"/>
+        <v>9500</v>
       </c>
       <c r="F16">
-        <v>5800</v>
+        <f t="shared" si="14"/>
+        <v>9700</v>
       </c>
     </row>
   </sheetData>
@@ -5809,17 +5872,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C78D9E-378F-4AC6-AC1B-DEEA36CD5470}">
-  <dimension ref="A1:AJ15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE896BB-7396-4B15-B84E-AB5B0223EB83}">
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
@@ -7472,6 +7536,51 @@
         <v>2324</v>
       </c>
     </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
